--- a/scr/results/2709_test_result_batch1_s_6FG_weight.xlsx
+++ b/scr/results/2709_test_result_batch1_s_6FG_weight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,118 +508,118 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>TR23AH00000052</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>TR23AH00000052</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>6590</v>
+        <v>7400</v>
       </c>
       <c r="G2" t="n">
         <v>1219</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 1}, {'order_no': 'F381', 'width': 64.0, 'lines': 2}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 9}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 3}, {'order_no': 'F387', 'width': 426.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0.41</v>
+        <v>2.215</v>
       </c>
       <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>F385</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>3</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>F368</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
       <c r="N2" t="n">
-        <v>567.6369999999999</v>
+        <v>4516.489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>TR23AH00000052</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>TR23AH00000052</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>6590</v>
+        <v>7400</v>
       </c>
       <c r="G3" t="n">
         <v>1219</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 1}, {'order_no': 'F381', 'width': 64.0, 'lines': 2}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 9}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 3}, {'order_no': 'F387', 'width': 426.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>0.41</v>
+        <v>2.215</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>F381</t>
+          <t>F384</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>691.977</v>
+        <v>2719.606</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>6590</v>
+        <v>4630</v>
       </c>
       <c r="G4" t="n">
         <v>1219</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 1}, {'order_no': 'F381', 'width': 64.0, 'lines': 2}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 9}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -629,857 +629,857 @@
         <v>0.41</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>F369</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>5303.355</v>
+        <v>2233.339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TP235H001943</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TP235H001943</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>4630</v>
       </c>
       <c r="G5" t="n">
         <v>1219</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 11}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.641</v>
+        <v>0.41</v>
       </c>
       <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>F57</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>F369</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>11</v>
-      </c>
       <c r="N5" t="n">
-        <v>393.437</v>
+        <v>516.5549999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TR23AH00000052</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TR23AH00000052</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>7400</v>
+        <v>4630</v>
       </c>
       <c r="G6" t="n">
         <v>1219</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 3}, {'order_no': 'F387', 'width': 426.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.215</v>
+        <v>0.41</v>
       </c>
       <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>F70</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>F385</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
       <c r="N6" t="n">
-        <v>4516.489</v>
+        <v>516.5549999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TR23AH00000052</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TR23AH00000052</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>7400</v>
+        <v>4630</v>
       </c>
       <c r="G7" t="n">
         <v>1219</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 3}, {'order_no': 'F387', 'width': 426.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.215</v>
+        <v>0.41</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>F384</t>
+          <t>F71</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>2719.606</v>
+        <v>1063.495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TP231H004996</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TP231H004996</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>7300</v>
+        <v>4630</v>
       </c>
       <c r="G8" t="n">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 0}, {'order_no': 'F259', 'width': 185.0, 'lines': 0}, {'order_no': 'F261', 'width': 300.0, 'lines': 4}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.662</v>
+        <v>0.41</v>
       </c>
       <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>F72</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>F261</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
       <c r="N8" t="n">
-        <v>7251.656</v>
+        <v>281.066</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TP233H000003</t>
+          <t>X5-Di2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TP233H000003</t>
+          <t>X5-Di2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G9" t="n">
         <v>1219</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 0}, {'order_no': 'F259', 'width': 185.0, 'lines': 4}, {'order_no': 'F261', 'width': 300.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 8}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="J9" t="n">
-        <v>0.574</v>
+        <v>3.527</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>F259</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>2428.22</v>
+        <v>3376.538</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TP233H000003</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TP233H000003</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4000</v>
+        <v>4630</v>
       </c>
       <c r="G10" t="n">
         <v>1219</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 0}, {'order_no': 'F259', 'width': 185.0, 'lines': 4}, {'order_no': 'F261', 'width': 300.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>0.574</v>
+        <v>0.41</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>F179</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1548.811</v>
+        <v>1033.109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>6970</v>
+        <v>4630</v>
       </c>
       <c r="G11" t="n">
         <v>1219</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 2}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 1}, {'order_no': 'F257', 'width': 60.0, 'lines': 1}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.969</v>
+        <v>0.41</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>F330</t>
+          <t>F74</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>5260.377</v>
+        <v>1823.134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>6970</v>
+        <v>4630</v>
       </c>
       <c r="G12" t="n">
         <v>1219</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 2}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 1}, {'order_no': 'F257', 'width': 60.0, 'lines': 1}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.969</v>
+        <v>0.41</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>F178</t>
+          <t>F46</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1229.327</v>
+        <v>759.639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>6970</v>
+        <v>4630</v>
       </c>
       <c r="G13" t="n">
         <v>1219</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 2}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 1}, {'order_no': 'F257', 'width': 60.0, 'lines': 1}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.969</v>
+        <v>0.41</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>F257</t>
+          <t>F67</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>343.068</v>
+        <v>455.783</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TP231H005005</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TP231H005005</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>7670</v>
+        <v>4630</v>
       </c>
       <c r="G14" t="n">
         <v>1219</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 1}, {'order_no': 'F257', 'width': 60.0, 'lines': 1}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.61</v>
+        <v>0.41</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>F256</t>
+          <t>F75</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>3460.623</v>
+        <v>322.847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TP231H005005</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TP231H005005</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>7670</v>
+        <v>4630</v>
       </c>
       <c r="G15" t="n">
         <v>1219</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 1}, {'order_no': 'F257', 'width': 60.0, 'lines': 1}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.61</v>
+        <v>0.41</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>F176</t>
+          <t>F66</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>2202.215</v>
+        <v>216.497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TP231H005005</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TP231H005005</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>7670</v>
+        <v>3500</v>
       </c>
       <c r="G16" t="n">
         <v>1219</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 1}, {'order_no': 'F257', 'width': 60.0, 'lines': 1}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J16" t="n">
-        <v>3.61</v>
+        <v>0.427</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>F178</t>
+          <t>F74</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>1352.789</v>
+        <v>1378.179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TP231H005005</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TP231H005005</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>7670</v>
+        <v>3500</v>
       </c>
       <c r="G17" t="n">
         <v>1219</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 1}, {'order_no': 'F257', 'width': 60.0, 'lines': 1}, {'order_no': 'F332', 'width': 95.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>44</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J17" t="n">
-        <v>3.61</v>
+        <v>0.427</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>F257</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>377.523</v>
+        <v>355.455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>4630</v>
+        <v>3500</v>
       </c>
       <c r="G18" t="n">
         <v>1219</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J18" t="n">
-        <v>0.41</v>
+        <v>0.427</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>F58</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>2233.339</v>
+        <v>373.257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>4630</v>
+        <v>3500</v>
       </c>
       <c r="G19" t="n">
         <v>1219</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J19" t="n">
-        <v>0.41</v>
+        <v>0.427</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>F67</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>516.5549999999999</v>
+        <v>172.272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>4630</v>
+        <v>3500</v>
       </c>
       <c r="G20" t="n">
         <v>1219</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J20" t="n">
-        <v>0.41</v>
+        <v>0.427</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>F70</t>
+          <t>F75</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>516.5549999999999</v>
+        <v>244.053</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>4630</v>
+        <v>3500</v>
       </c>
       <c r="G21" t="n">
         <v>1219</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J21" t="n">
-        <v>0.41</v>
+        <v>0.427</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>F71</t>
+          <t>F77</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1063.495</v>
+        <v>264.151</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>4630</v>
+        <v>3500</v>
       </c>
       <c r="G22" t="n">
         <v>1219</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J22" t="n">
-        <v>0.41</v>
+        <v>0.427</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>F72</t>
+          <t>F66</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>281.066</v>
+        <v>163.659</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>X5-Di2</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>X5-Di2</t>
+          <t>X5-Di1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1493,63 +1493,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 8}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>43</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J23" t="n">
-        <v>3.527</v>
+        <v>0.427</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>F58</t>
+          <t>F78</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>3376.538</v>
+        <v>534.044</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>4630</v>
+        <v>4618</v>
       </c>
       <c r="G24" t="n">
         <v>1219</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 3}, {'order_no': 'F53', 'width': 123.8, 'lines': 2}, {'order_no': 'F55', 'width': 130.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>43.40000000000009</v>
       </c>
       <c r="J24" t="n">
-        <v>0.41</v>
+        <v>3.56</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1557,127 +1557,127 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>1033.109</v>
+        <v>1545.647</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>4630</v>
+        <v>4618</v>
       </c>
       <c r="G25" t="n">
         <v>1219</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 3}, {'order_no': 'F53', 'width': 123.8, 'lines': 2}, {'order_no': 'F55', 'width': 130.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>43.40000000000009</v>
       </c>
       <c r="J25" t="n">
-        <v>0.41</v>
+        <v>3.56</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>F74</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>1823.134</v>
+        <v>937.996</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>4630</v>
+        <v>4618</v>
       </c>
       <c r="G26" t="n">
         <v>1219</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 3}, {'order_no': 'F53', 'width': 123.8, 'lines': 2}, {'order_no': 'F55', 'width': 130.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>43.40000000000009</v>
       </c>
       <c r="J26" t="n">
-        <v>0.41</v>
+        <v>3.56</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>F46</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>759.639</v>
+        <v>1969.943</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>4630</v>
+        <v>11470</v>
       </c>
       <c r="G27" t="n">
         <v>1219</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1691,39 +1691,39 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>F67</t>
+          <t>F410</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>455.783</v>
+        <v>677.473</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>4630</v>
+        <v>11470</v>
       </c>
       <c r="G28" t="n">
         <v>1219</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1737,39 +1737,39 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>F75</t>
+          <t>F415</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>322.847</v>
+        <v>846.842</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>4630</v>
+        <v>11470</v>
       </c>
       <c r="G29" t="n">
         <v>1219</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1783,555 +1783,555 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>F66</t>
+          <t>F401</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>216.497</v>
+        <v>3387.367</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>3500</v>
+        <v>11470</v>
       </c>
       <c r="G30" t="n">
         <v>1219</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>F74</t>
+          <t>F396</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>1378.179</v>
+        <v>4892.863</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>3500</v>
+        <v>11470</v>
       </c>
       <c r="G31" t="n">
         <v>1219</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>F395</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>355.455</v>
+        <v>1176.169</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>3500</v>
+        <v>11470</v>
       </c>
       <c r="G32" t="n">
         <v>1219</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>F55</t>
+          <t>F406</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>373.257</v>
+        <v>442.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>3500</v>
+        <v>11295</v>
       </c>
       <c r="G33" t="n">
         <v>1219</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>F67</t>
+          <t>F410</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>172.272</v>
+        <v>667.1369999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>3500</v>
+        <v>11295</v>
       </c>
       <c r="G34" t="n">
         <v>1219</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>F75</t>
+          <t>F415</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" t="n">
-        <v>244.053</v>
+        <v>1667.842</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>3500</v>
+        <v>11295</v>
       </c>
       <c r="G35" t="n">
         <v>1219</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>F77</t>
+          <t>F391</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>264.151</v>
+        <v>2890.927</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>3500</v>
+        <v>11295</v>
       </c>
       <c r="G36" t="n">
         <v>1219</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>F66</t>
+          <t>F407</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>163.659</v>
+        <v>2687.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>3500</v>
+        <v>11295</v>
       </c>
       <c r="G37" t="n">
         <v>1219</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K37" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>F78</t>
+          <t>F411</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>534.044</v>
+        <v>2084.803</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>4618</v>
+        <v>11295</v>
       </c>
       <c r="G38" t="n">
         <v>1219</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 3}, {'order_no': 'F53', 'width': 123.8, 'lines': 2}, {'order_no': 'F55', 'width': 130.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>43.40000000000009</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.56</v>
+        <v>0.41</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>F397</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>1545.647</v>
+        <v>1250.882</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>4618</v>
+        <v>10000</v>
       </c>
       <c r="G39" t="n">
         <v>1219</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 3}, {'order_no': 'F53', 'width': 123.8, 'lines': 2}, {'order_no': 'F55', 'width': 130.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 13}, {'order_no': 'F415', 'width': 90.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>43.40000000000009</v>
+        <v>13</v>
       </c>
       <c r="J39" t="n">
-        <v>3.56</v>
+        <v>1.066</v>
       </c>
       <c r="K39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>F410</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N39" t="n">
-        <v>937.996</v>
+        <v>7678.425</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>4618</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="n">
         <v>1219</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 3}, {'order_no': 'F53', 'width': 123.8, 'lines': 2}, {'order_no': 'F55', 'width': 130.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 13}, {'order_no': 'F415', 'width': 90.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>43.40000000000009</v>
+        <v>13</v>
       </c>
       <c r="J40" t="n">
-        <v>3.56</v>
+        <v>1.066</v>
       </c>
       <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>F415</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>3</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>F55</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>4</v>
-      </c>
       <c r="N40" t="n">
-        <v>1969.943</v>
+        <v>2214.93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>X9</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>X9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>11470</v>
+        <v>9500</v>
       </c>
       <c r="G41" t="n">
         <v>1219</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 3}, {'order_no': 'F415', 'width': 90.0, 'lines': 11}]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J41" t="n">
-        <v>0.41</v>
+        <v>1.066</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2339,45 +2339,45 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>677.473</v>
+        <v>1683.347</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>X9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>X9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>11470</v>
+        <v>9500</v>
       </c>
       <c r="G42" t="n">
         <v>1219</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 3}, {'order_no': 'F415', 'width': 90.0, 'lines': 11}]</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J42" t="n">
-        <v>0.41</v>
+        <v>1.066</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2385,725 +2385,725 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N42" t="n">
-        <v>846.842</v>
+        <v>7715.34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV0828/23-D1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV0828/23-D1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>11470</v>
+        <v>4266</v>
       </c>
       <c r="G43" t="n">
-        <v>1219</v>
+        <v>1108</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 5}, {'order_no': 'F141', 'width': 145.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 0}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 0}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 0}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
-        <v>0.41</v>
+        <v>0.722</v>
       </c>
       <c r="K43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>F401</t>
+          <t>F146</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N43" t="n">
-        <v>3387.367</v>
+        <v>4235.199</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>11470</v>
+        <v>5350</v>
       </c>
       <c r="G44" t="n">
         <v>1219</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>0.41</v>
+        <v>0.492</v>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>F396</t>
+          <t>F141</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="n">
-        <v>4892.863</v>
+        <v>3181.911</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>11470</v>
+        <v>5350</v>
       </c>
       <c r="G45" t="n">
         <v>1219</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>0.41</v>
+        <v>0.492</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>F395</t>
+          <t>F134</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>1176.169</v>
+        <v>465.217</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>11470</v>
+        <v>5350</v>
       </c>
       <c r="G46" t="n">
         <v>1219</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>0.41</v>
+        <v>0.492</v>
       </c>
       <c r="K46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>F406</t>
+          <t>F153</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>442.24</v>
+        <v>921.657</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>11295</v>
+        <v>5350</v>
       </c>
       <c r="G47" t="n">
         <v>1219</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>0.41</v>
+        <v>0.492</v>
       </c>
       <c r="K47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>F410</t>
+          <t>F151</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>667.1369999999999</v>
+        <v>228.22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>11295</v>
+        <v>5350</v>
       </c>
       <c r="G48" t="n">
         <v>1219</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>0.41</v>
+        <v>0.492</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>F415</t>
+          <t>F136</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>1667.842</v>
+        <v>526.6609999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>11295</v>
+        <v>3750</v>
       </c>
       <c r="G49" t="n">
         <v>1219</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J49" t="n">
-        <v>0.41</v>
+        <v>1.066</v>
       </c>
       <c r="K49" t="n">
+        <v>4</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>F134</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>6</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>F391</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>3</v>
-      </c>
       <c r="N49" t="n">
-        <v>2890.927</v>
+        <v>1956.522</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>11295</v>
+        <v>3750</v>
       </c>
       <c r="G50" t="n">
         <v>1219</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J50" t="n">
-        <v>0.41</v>
+        <v>1.066</v>
       </c>
       <c r="K50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>F407</t>
+          <t>F142</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
-        <v>2687.08</v>
+        <v>922.888</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>11295</v>
+        <v>3750</v>
       </c>
       <c r="G51" t="n">
         <v>1219</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J51" t="n">
-        <v>0.41</v>
+        <v>1.066</v>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>F411</t>
+          <t>F154</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>2084.803</v>
+        <v>442.986</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>11295</v>
+        <v>3750</v>
       </c>
       <c r="G52" t="n">
         <v>1219</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
-        <v>0.41</v>
+        <v>1.066</v>
       </c>
       <c r="K52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>F397</t>
+          <t>F152</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>1250.882</v>
+        <v>387.613</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>TM246H00000202</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>TM246H00000202</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>10000</v>
+        <v>7980</v>
       </c>
       <c r="G53" t="n">
         <v>1219</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 13}, {'order_no': 'F415', 'width': 90.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 2}, {'order_no': 'F332', 'width': 95.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J53" t="n">
-        <v>1.066</v>
+        <v>1.148</v>
       </c>
       <c r="K53" t="n">
         <v>2</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>F410</t>
+          <t>F330</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
-        <v>7678.425</v>
+        <v>6022.642</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>TM246H00000202</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>TM246H00000202</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>10000</v>
+        <v>7980</v>
       </c>
       <c r="G54" t="n">
         <v>1219</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 13}, {'order_no': 'F415', 'width': 90.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 2}, {'order_no': 'F332', 'width': 95.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J54" t="n">
-        <v>1.066</v>
+        <v>1.148</v>
       </c>
       <c r="K54" t="n">
         <v>2</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>F415</t>
+          <t>F332</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="n">
-        <v>2214.93</v>
+        <v>1865.71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>X9</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>X9</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="G55" t="n">
         <v>1219</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 3}, {'order_no': 'F415', 'width': 90.0, 'lines': 11}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>1.066</v>
+        <v>0.492</v>
       </c>
       <c r="K55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>F351</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>2</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>F410</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>3</v>
-      </c>
       <c r="N55" t="n">
-        <v>1683.347</v>
+        <v>4383.921</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>X9</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>X9</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="G56" t="n">
         <v>1219</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 3}, {'order_no': 'F415', 'width': 90.0, 'lines': 11}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>1.066</v>
+        <v>0.492</v>
       </c>
       <c r="K56" t="n">
+        <v>4</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>F349</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>2</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>F415</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>11</v>
-      </c>
       <c r="N56" t="n">
-        <v>7715.34</v>
+        <v>2100.082</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HTV0828/23-D1</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HTV0828/23-D1</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>4266</v>
+        <v>8000</v>
       </c>
       <c r="G57" t="n">
-        <v>1108</v>
+        <v>1219</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 5}, {'order_no': 'F141', 'width': 145.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 0}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 0}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 0}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>0.722</v>
+        <v>0.492</v>
       </c>
       <c r="K57" t="n">
+        <v>4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>F347</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>F146</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>5</v>
-      </c>
       <c r="N57" t="n">
-        <v>4235.199</v>
+        <v>885.972</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>X6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>5350</v>
+        <v>8000</v>
       </c>
       <c r="G58" t="n">
         <v>1219</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3113,1239 +3113,1239 @@
         <v>0.492</v>
       </c>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>F141</t>
+          <t>F357</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>3181.911</v>
+        <v>590.648</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>TP236H005510</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>TP236H005510</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>5350</v>
+        <v>4395</v>
       </c>
       <c r="G59" t="n">
         <v>1219</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J59" t="n">
-        <v>0.492</v>
+        <v>0.984</v>
       </c>
       <c r="K59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>F134</t>
+          <t>F351</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>465.217</v>
+        <v>2408.417</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>TP236H005510</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>TP236H005510</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>5350</v>
+        <v>4395</v>
       </c>
       <c r="G60" t="n">
         <v>1219</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J60" t="n">
-        <v>0.492</v>
+        <v>0.984</v>
       </c>
       <c r="K60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>F153</t>
+          <t>F347</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>921.657</v>
+        <v>486.731</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>TP236H005510</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>TP236H005510</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>5350</v>
+        <v>4395</v>
       </c>
       <c r="G61" t="n">
         <v>1219</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J61" t="n">
-        <v>0.492</v>
+        <v>0.984</v>
       </c>
       <c r="K61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>F151</t>
+          <t>F348</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>228.22</v>
+        <v>1059.992</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>TP236H005510</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>TP236H005510</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>5350</v>
+        <v>4395</v>
       </c>
       <c r="G62" t="n">
         <v>1219</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J62" t="n">
-        <v>0.492</v>
+        <v>0.984</v>
       </c>
       <c r="K62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>F136</t>
+          <t>F354</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>526.6609999999999</v>
+        <v>396.596</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>TM236H00000365</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>TM236H00000365</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>3750</v>
+        <v>6970</v>
       </c>
       <c r="G63" t="n">
         <v>1219</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 4}, {'order_no': 'F261', 'width': 300.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
-        <v>1.066</v>
+        <v>0.574</v>
       </c>
       <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>F259</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>4</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>F134</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>6</v>
-      </c>
       <c r="N63" t="n">
-        <v>1956.522</v>
+        <v>4231.173</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>TM236H00000365</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>TM236H00000365</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>3750</v>
+        <v>6970</v>
       </c>
       <c r="G64" t="n">
         <v>1219</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 4}, {'order_no': 'F261', 'width': 300.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
-        <v>1.066</v>
+        <v>0.574</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>F142</t>
+          <t>F179</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="n">
-        <v>922.888</v>
+        <v>2698.802</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>TP231H004996-Di1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>TP231H004996-Di1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="G65" t="n">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 0}, {'order_no': 'F261', 'width': 300.0, 'lines': 4}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
-        <v>1.066</v>
+        <v>0.662</v>
       </c>
       <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>F261</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>4</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>F154</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>2</v>
-      </c>
       <c r="N65" t="n">
-        <v>442.986</v>
+        <v>3625.828</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>TM236H00000364-Di1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>TM236H00000364-Di1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>3750</v>
+        <v>4320</v>
       </c>
       <c r="G66" t="n">
         <v>1219</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 5}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J66" t="n">
-        <v>1.066</v>
+        <v>1.969</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>F152</t>
+          <t>F178</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N66" t="n">
-        <v>387.613</v>
+        <v>3809.68</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TM246H00000202</t>
+          <t>TM236H00000364-Di1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TM246H00000202</t>
+          <t>TM236H00000364-Di1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>7980</v>
+        <v>4320</v>
       </c>
       <c r="G67" t="n">
         <v>1219</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 2}, {'order_no': 'F332', 'width': 95.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 5}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J67" t="n">
-        <v>1.148</v>
+        <v>1.969</v>
       </c>
       <c r="K67" t="n">
         <v>2</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>F330</t>
+          <t>F257</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="n">
-        <v>6022.642</v>
+        <v>425.267</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TM246H00000202</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TM246H00000202</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>7980</v>
+        <v>3795</v>
       </c>
       <c r="G68" t="n">
         <v>1219</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F330', 'width': 460.0, 'lines': 2}, {'order_no': 'F332', 'width': 95.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J68" t="n">
-        <v>1.148</v>
+        <v>1.969</v>
       </c>
       <c r="K68" t="n">
+        <v>3</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>F256</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>2</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>F332</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>3</v>
-      </c>
       <c r="N68" t="n">
-        <v>1865.71</v>
+        <v>1712.264</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>8000</v>
+        <v>3795</v>
       </c>
       <c r="G69" t="n">
         <v>1219</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J69" t="n">
-        <v>0.492</v>
+        <v>1.969</v>
       </c>
       <c r="K69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>F351</t>
+          <t>F176</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>4383.921</v>
+        <v>1634.434</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>8000</v>
+        <v>3795</v>
       </c>
       <c r="G70" t="n">
         <v>1219</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J70" t="n">
-        <v>0.492</v>
+        <v>1.969</v>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>F349</t>
+          <t>F257</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>2100.082</v>
+        <v>373.585</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>TP231H004996-Di2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>TP231H004996-Di2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>8000</v>
+        <v>3650</v>
       </c>
       <c r="G71" t="n">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 3}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J71" t="n">
-        <v>0.492</v>
+        <v>1.076</v>
       </c>
       <c r="K71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>F347</t>
+          <t>F256</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71" t="n">
-        <v>885.972</v>
+        <v>1661.838</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>TP231H004996-Di2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>TP231H004996-Di2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>8000</v>
+        <v>3650</v>
       </c>
       <c r="G72" t="n">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 3}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J72" t="n">
-        <v>0.492</v>
+        <v>1.076</v>
       </c>
       <c r="K72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>F357</t>
+          <t>F178</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>590.648</v>
+        <v>1948.882</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0519/23</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0519/23</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>4395</v>
+        <v>3365</v>
       </c>
       <c r="G73" t="n">
         <v>1219</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J73" t="n">
-        <v>0.984</v>
+        <v>2.051</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>F351</t>
+          <t>F124</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N73" t="n">
-        <v>2408.417</v>
+        <v>1863.31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0519/23</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0519/23</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>4395</v>
+        <v>3365</v>
       </c>
       <c r="G74" t="n">
         <v>1219</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J74" t="n">
-        <v>0.984</v>
+        <v>2.051</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>F347</t>
+          <t>F123</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N74" t="n">
-        <v>486.731</v>
+        <v>1432.678</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0729/23</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0729/23</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>4395</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="n">
         <v>1219</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J75" t="n">
-        <v>0.984</v>
+        <v>2.051</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>F348</t>
+          <t>F124</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>1059.992</v>
+        <v>1661.198</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0729/23</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0729/23</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>4395</v>
+        <v>3000</v>
       </c>
       <c r="G76" t="n">
         <v>1219</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J76" t="n">
-        <v>0.984</v>
+        <v>2.051</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>F354</t>
+          <t>F123</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N76" t="n">
-        <v>396.596</v>
+        <v>1277.276</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>4395</v>
+        <v>4000</v>
       </c>
       <c r="G77" t="n">
         <v>1219</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 0}, {'order_no': 'F125', 'width': 400.0, 'lines': 3}, {'order_no': 'F123', 'width': 173.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J77" t="n">
-        <v>0.41</v>
+        <v>1.559</v>
       </c>
       <c r="K77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>F351</t>
+          <t>F125</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N77" t="n">
-        <v>1204.208</v>
+        <v>3937.654</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>4395</v>
+        <v>5780</v>
       </c>
       <c r="G78" t="n">
         <v>1219</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J78" t="n">
-        <v>0.41</v>
+        <v>1.723</v>
       </c>
       <c r="K78" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>F74</t>
+          <t>F124</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>288.433</v>
+        <v>1066.858</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>4395</v>
+        <v>5780</v>
       </c>
       <c r="G79" t="n">
         <v>1219</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J79" t="n">
-        <v>0.41</v>
+        <v>1.723</v>
       </c>
       <c r="K79" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>F349</t>
+          <t>F125</t>
         </is>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="n">
-        <v>1153.733</v>
+        <v>3793.273</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>4395</v>
+        <v>5780</v>
       </c>
       <c r="G80" t="n">
         <v>1219</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J80" t="n">
-        <v>0.41</v>
+        <v>1.723</v>
       </c>
       <c r="K80" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>F55</t>
+          <t>F123</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>468.704</v>
+        <v>820.295</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>4395</v>
+        <v>5780</v>
       </c>
       <c r="G81" t="n">
         <v>1219</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J81" t="n">
-        <v>0.41</v>
+        <v>1.723</v>
       </c>
       <c r="K81" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>F71</t>
+          <t>F124</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>504.758</v>
+        <v>1066.858</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>4395</v>
+        <v>5780</v>
       </c>
       <c r="G82" t="n">
         <v>1219</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J82" t="n">
-        <v>0.41</v>
+        <v>1.723</v>
       </c>
       <c r="K82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>F67</t>
+          <t>F125</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="n">
-        <v>432.65</v>
+        <v>3793.273</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>4395</v>
+        <v>5780</v>
       </c>
       <c r="G83" t="n">
         <v>1219</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J83" t="n">
-        <v>0.41</v>
+        <v>1.723</v>
       </c>
       <c r="K83" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>F357</t>
+          <t>F123</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>324.487</v>
+        <v>820.295</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>4618</v>
+        <v>6000</v>
       </c>
       <c r="G84" t="n">
         <v>1219</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 0}, {'order_no': 'F58', 'width': 147.0, 'lines': 8}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F349', 'width': 160.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J84" t="n">
-        <v>3.527</v>
+        <v>0.41</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>F58</t>
+          <t>F84</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>4455.101</v>
+        <v>1624.282</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G85" t="n">
         <v>1219</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 4}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -4355,43 +4355,43 @@
         <v>0.41</v>
       </c>
       <c r="K85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>F351</t>
+          <t>F115</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N85" t="n">
-        <v>1917.966</v>
+        <v>1870.386</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G86" t="n">
         <v>1219</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 4}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -4401,43 +4401,43 @@
         <v>0.41</v>
       </c>
       <c r="K86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>F81</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="n">
-        <v>1561.936</v>
+        <v>1004.102</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G87" t="n">
         <v>1219</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 4}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -4447,43 +4447,43 @@
         <v>0.41</v>
       </c>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>F74</t>
+          <t>F83</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N87" t="n">
-        <v>1837.572</v>
+        <v>1033.634</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G88" t="n">
         <v>1219</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 4}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -4493,43 +4493,43 @@
         <v>0.41</v>
       </c>
       <c r="K88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>F347</t>
+          <t>F113</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>775.226</v>
+        <v>442.986</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>7000</v>
+        <v>5485</v>
       </c>
       <c r="G89" t="n">
         <v>1219</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 4}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -4539,43 +4539,43 @@
         <v>0.41</v>
       </c>
       <c r="K89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>F70</t>
+          <t>F87</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N89" t="n">
-        <v>390.484</v>
+        <v>1079.902</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>7000</v>
+        <v>5485</v>
       </c>
       <c r="G90" t="n">
         <v>1219</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 4}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -4585,3468 +4585,1628 @@
         <v>0.41</v>
       </c>
       <c r="K90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>F75</t>
+          <t>F111</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N90" t="n">
-        <v>488.105</v>
+        <v>1934.824</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>8000</v>
+        <v>5485</v>
       </c>
       <c r="G91" t="n">
         <v>1219</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 2}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>12.20000000000005</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
-        <v>1.001</v>
+        <v>0.41</v>
       </c>
       <c r="K91" t="n">
         <v>5</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>F351</t>
+          <t>F108</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="n">
-        <v>4383.921</v>
+        <v>584.947</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>8000</v>
+        <v>5485</v>
       </c>
       <c r="G92" t="n">
         <v>1219</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 2}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>12.20000000000005</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>1.001</v>
+        <v>0.41</v>
       </c>
       <c r="K92" t="n">
         <v>5</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>F104</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>812.4690000000001</v>
+        <v>1052.904</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>8000</v>
+        <v>5485</v>
       </c>
       <c r="G93" t="n">
         <v>1219</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 2}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>12.20000000000005</v>
+        <v>5</v>
       </c>
       <c r="J93" t="n">
-        <v>1.001</v>
+        <v>0.41</v>
       </c>
       <c r="K93" t="n">
         <v>5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>F55</t>
+          <t>F99</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>1706.317</v>
+        <v>809.926</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>X8-Di1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>X8-Di1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="G94" t="n">
         <v>1219</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 2}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 6}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 3}, {'order_no': 'F88', 'width': 126.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>12.20000000000005</v>
+        <v>7</v>
       </c>
       <c r="J94" t="n">
-        <v>1.001</v>
+        <v>0.574</v>
       </c>
       <c r="K94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>F46</t>
+          <t>F87</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N94" t="n">
-        <v>656.276</v>
+        <v>2657.916</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>X8-Di1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>X8-Di1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="G95" t="n">
         <v>1219</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 2}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 1}, {'order_no': 'F354', 'width': 55.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 6}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 3}, {'order_no': 'F88', 'width': 126.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>12.20000000000005</v>
+        <v>7</v>
       </c>
       <c r="J95" t="n">
-        <v>1.001</v>
+        <v>0.574</v>
       </c>
       <c r="K95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>F354</t>
+          <t>F109</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N95" t="n">
-        <v>360.952</v>
+        <v>885.972</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TP236H005509</t>
+          <t>X8-Di1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TP236H005509</t>
+          <t>X8-Di1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>9260</v>
+        <v>4500</v>
       </c>
       <c r="G96" t="n">
         <v>1219</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 6}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 6}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 3}, {'order_no': 'F88', 'width': 126.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>27.20000000000005</v>
+        <v>7</v>
       </c>
       <c r="J96" t="n">
-        <v>2.231</v>
+        <v>0.574</v>
       </c>
       <c r="K96" t="n">
         <v>3</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>F88</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
-        <v>940.433</v>
+        <v>930.271</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TP236H005509</t>
+          <t>HTV0802/24-D1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TP236H005509</t>
+          <t>HTV0802/24-D1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>9260</v>
+        <v>5848</v>
       </c>
       <c r="G97" t="n">
         <v>1219</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 6}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 4}, {'order_no': 'F159', 'width': 90.6, 'lines': 3}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>27.20000000000005</v>
+        <v>11.20000000000005</v>
       </c>
       <c r="J97" t="n">
-        <v>2.231</v>
+        <v>0.919</v>
       </c>
       <c r="K97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>F348</t>
+          <t>F156</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N97" t="n">
-        <v>6700.016</v>
+        <v>4490.343</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TP236H005509</t>
+          <t>HTV0802/24-D1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TP236H005509</t>
+          <t>HTV0802/24-D1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>9260</v>
+        <v>5848</v>
       </c>
       <c r="G98" t="n">
         <v>1219</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 6}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 4}, {'order_no': 'F159', 'width': 90.6, 'lines': 3}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>27.20000000000005</v>
+        <v>11.20000000000005</v>
       </c>
       <c r="J98" t="n">
-        <v>2.231</v>
+        <v>0.919</v>
       </c>
       <c r="K98" t="n">
+        <v>2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>F159</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>3</v>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>F78</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>2</v>
-      </c>
       <c r="N98" t="n">
-        <v>1412.929</v>
+        <v>1303.926</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>HTV1772/23-Di1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>HTV1772/23-Di1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>6970</v>
+        <v>4450</v>
       </c>
       <c r="G99" t="n">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 4}, {'order_no': 'F261', 'width': 300.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J99" t="n">
-        <v>0.574</v>
+        <v>0.679</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>F259</t>
+          <t>F156</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N99" t="n">
-        <v>4231.173</v>
+        <v>4419.779</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>HTV1772/23-Di2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>HTV1772/23-Di2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>6970</v>
+        <v>4450</v>
       </c>
       <c r="G100" t="n">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 4}, {'order_no': 'F261', 'width': 300.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J100" t="n">
-        <v>0.574</v>
+        <v>0.679</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>F179</t>
+          <t>F156</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N100" t="n">
-        <v>2698.802</v>
+        <v>4419.779</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TP231H004996-Di1</t>
+          <t>HTV1773/23-Di1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TP231H004996-Di1</t>
+          <t>HTV1773/23-Di1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>3650</v>
+        <v>4570</v>
       </c>
       <c r="G101" t="n">
-        <v>1208</v>
+        <v>1178</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 0}, {'order_no': 'F261', 'width': 300.0, 'lines': 4}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>8</v>
       </c>
       <c r="J101" t="n">
-        <v>0.662</v>
+        <v>0.679</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>F261</t>
+          <t>F156</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N101" t="n">
-        <v>3625.828</v>
+        <v>4538.964</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TM236H00000364-Di1</t>
+          <t>HTV1773/23-Di2</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TM236H00000364-Di1</t>
+          <t>HTV1773/23-Di2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>4320</v>
+        <v>4570</v>
       </c>
       <c r="G102" t="n">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 5}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J102" t="n">
-        <v>1.969</v>
+        <v>0.679</v>
       </c>
       <c r="K102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>F178</t>
+          <t>F156</t>
         </is>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="n">
-        <v>3809.68</v>
+        <v>4538.964</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TM236H00000364-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TM236H00000364-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>4320</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="n">
         <v>1219</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 5}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J103" t="n">
-        <v>1.969</v>
+        <v>0.492</v>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>F257</t>
+          <t>F375</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>425.267</v>
+        <v>820.345</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>3795</v>
+        <v>5000</v>
       </c>
       <c r="G104" t="n">
         <v>1219</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J104" t="n">
-        <v>1.969</v>
+        <v>0.492</v>
       </c>
       <c r="K104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>F256</t>
+          <t>F370</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N104" t="n">
-        <v>1712.264</v>
+        <v>500.41</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>3795</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="n">
         <v>1219</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J105" t="n">
-        <v>1.969</v>
+        <v>0.492</v>
       </c>
       <c r="K105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>F176</t>
+          <t>F372</t>
         </is>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="n">
-        <v>1634.434</v>
+        <v>2054.963</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>3795</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="n">
         <v>1219</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J106" t="n">
-        <v>1.969</v>
+        <v>0.492</v>
       </c>
       <c r="K106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>F257</t>
+          <t>F374</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>2</v>
       </c>
       <c r="N106" t="n">
-        <v>373.585</v>
+        <v>1599.672</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TP231H004996-Di2</t>
+          <t>Z4-Di1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TP231H004996-Di2</t>
+          <t>Z4-Di1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="G107" t="n">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 3}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 6}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J107" t="n">
-        <v>1.076</v>
+        <v>1.559</v>
       </c>
       <c r="K107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>F256</t>
+          <t>F375</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N107" t="n">
-        <v>1661.838</v>
+        <v>4183.757</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TP231H004996-Di2</t>
+          <t>Z4-Di2</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TP231H004996-Di2</t>
+          <t>Z4-Di2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>3650</v>
+        <v>4250</v>
       </c>
       <c r="G108" t="n">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 3}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 6}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J108" t="n">
-        <v>1.076</v>
+        <v>1.559</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>F178</t>
+          <t>F375</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N108" t="n">
-        <v>1948.882</v>
+        <v>4183.757</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HTV0519/23</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>HTV0519/23</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>3365</v>
+        <v>4750</v>
       </c>
       <c r="G109" t="n">
         <v>1219</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>2.051</v>
+        <v>0.492</v>
       </c>
       <c r="K109" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>F124</t>
+          <t>F370</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N109" t="n">
-        <v>1863.31</v>
+        <v>475.39</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HTV0519/23</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>HTV0519/23</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>3365</v>
+        <v>4750</v>
       </c>
       <c r="G110" t="n">
         <v>1219</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J110" t="n">
-        <v>2.051</v>
+        <v>0.492</v>
       </c>
       <c r="K110" t="n">
+        <v>5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>F368</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>2</v>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>F123</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>3</v>
-      </c>
       <c r="N110" t="n">
-        <v>1432.678</v>
+        <v>818.294</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HTV0729/23</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>HTV0729/23</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>3000</v>
+        <v>4750</v>
       </c>
       <c r="G111" t="n">
         <v>1219</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>2.051</v>
+        <v>0.492</v>
       </c>
       <c r="K111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>F124</t>
+          <t>F381</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>3</v>
       </c>
       <c r="N111" t="n">
-        <v>1661.198</v>
+        <v>748.154</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HTV0729/23</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>HTV0729/23</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>3000</v>
+        <v>4750</v>
       </c>
       <c r="G112" t="n">
         <v>1219</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
-        <v>2.051</v>
+        <v>0.492</v>
       </c>
       <c r="K112" t="n">
+        <v>5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>F379</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>2</v>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>F123</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>3</v>
-      </c>
       <c r="N112" t="n">
-        <v>1277.276</v>
+        <v>2260.049</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Y1</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Y1</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="G113" t="n">
         <v>1219</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 0}, {'order_no': 'F125', 'width': 400.0, 'lines': 3}, {'order_no': 'F123', 'width': 173.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J113" t="n">
-        <v>1.559</v>
+        <v>0.492</v>
       </c>
       <c r="K113" t="n">
+        <v>5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>F369</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>F125</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>3</v>
-      </c>
       <c r="N113" t="n">
-        <v>3937.654</v>
+        <v>424.733</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>5780</v>
+        <v>5000</v>
       </c>
       <c r="G114" t="n">
         <v>1219</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J114" t="n">
-        <v>1.723</v>
+        <v>0.492</v>
       </c>
       <c r="K114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>F124</t>
+          <t>F375</t>
         </is>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>1066.858</v>
+        <v>820.345</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>5780</v>
+        <v>5000</v>
       </c>
       <c r="G115" t="n">
         <v>1219</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J115" t="n">
-        <v>1.723</v>
+        <v>0.492</v>
       </c>
       <c r="K115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>F125</t>
+          <t>F370</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115" t="n">
-        <v>3793.273</v>
+        <v>500.41</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>5780</v>
+        <v>5000</v>
       </c>
       <c r="G116" t="n">
         <v>1219</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J116" t="n">
-        <v>1.723</v>
+        <v>0.492</v>
       </c>
       <c r="K116" t="n">
+        <v>4</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>F368</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>3</v>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>F123</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
       <c r="N116" t="n">
-        <v>820.295</v>
+        <v>1292.043</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>5780</v>
+        <v>5000</v>
       </c>
       <c r="G117" t="n">
         <v>1219</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J117" t="n">
-        <v>1.723</v>
+        <v>0.492</v>
       </c>
       <c r="K117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>F124</t>
+          <t>F381</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N117" t="n">
-        <v>1066.858</v>
+        <v>2362.592</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>X3-Di2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>X3-Di2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>5780</v>
+        <v>3750</v>
       </c>
       <c r="G118" t="n">
         <v>1219</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 3}, {'order_no': 'F368', 'width': 105.0, 'lines': 7}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J118" t="n">
-        <v>1.723</v>
+        <v>0.738</v>
       </c>
       <c r="K118" t="n">
         <v>3</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>F125</t>
+          <t>F370</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N118" t="n">
-        <v>3793.273</v>
+        <v>1125.923</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>X3-Di2</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>X3-Di2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>5780</v>
+        <v>3750</v>
       </c>
       <c r="G119" t="n">
         <v>1219</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 3}, {'order_no': 'F368', 'width': 105.0, 'lines': 7}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J119" t="n">
-        <v>1.723</v>
+        <v>0.738</v>
       </c>
       <c r="K119" t="n">
         <v>3</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>F123</t>
+          <t>F368</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N119" t="n">
-        <v>820.295</v>
+        <v>2261.075</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>X3-Di2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>X3-Di2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>6590</v>
+        <v>3750</v>
       </c>
       <c r="G120" t="n">
         <v>1219</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 2}, {'order_no': 'F142', 'width': 150.0, 'lines': 5}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 0}, {'order_no': 'F152', 'width': 63.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 3}, {'order_no': 'F368', 'width': 105.0, 'lines': 7}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J120" t="n">
-        <v>0.41</v>
+        <v>0.738</v>
       </c>
       <c r="K120" t="n">
         <v>3</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>F134</t>
+          <t>F369</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N120" t="n">
-        <v>1146.087</v>
+        <v>335.316</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>X4-Di2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>X4-Di2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
-        <v>6590</v>
+        <v>4750</v>
       </c>
       <c r="G121" t="n">
         <v>1219</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 2}, {'order_no': 'F142', 'width': 150.0, 'lines': 5}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 0}, {'order_no': 'F152', 'width': 63.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 9}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J121" t="n">
-        <v>0.41</v>
+        <v>0.984</v>
       </c>
       <c r="K121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>F142</t>
+          <t>F370</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N121" t="n">
-        <v>4054.553</v>
+        <v>4278.507</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>X4-Di2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TM23BH00000192</t>
+          <t>X4-Di2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
-        <v>6590</v>
+        <v>4750</v>
       </c>
       <c r="G122" t="n">
         <v>1219</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 2}, {'order_no': 'F142', 'width': 150.0, 'lines': 5}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 0}, {'order_no': 'F152', 'width': 63.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 9}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J122" t="n">
-        <v>0.41</v>
+        <v>0.984</v>
       </c>
       <c r="K122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>F152</t>
+          <t>F369</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N122" t="n">
-        <v>1362.33</v>
+        <v>424.733</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TP235H001943</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TP235H001943</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
-        <v>400</v>
+        <v>4153</v>
       </c>
       <c r="G123" t="n">
         <v>1219</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 0}, {'order_no': 'F142', 'width': 150.0, 'lines': 8}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 0}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F386', 'width': 294.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J123" t="n">
-        <v>1.559</v>
+        <v>0.574</v>
       </c>
       <c r="K123" t="n">
+        <v>3</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>F385</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>F142</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>8</v>
-      </c>
       <c r="N123" t="n">
-        <v>393.765</v>
+        <v>844.909</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>6000</v>
+        <v>4153</v>
       </c>
       <c r="G124" t="n">
         <v>1219</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F386', 'width': 294.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J124" t="n">
-        <v>0.41</v>
+        <v>0.574</v>
       </c>
       <c r="K124" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>F84</t>
+          <t>F387</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N124" t="n">
-        <v>1624.282</v>
+        <v>2902.671</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="n">
-        <v>6000</v>
+        <v>4153</v>
       </c>
       <c r="G125" t="n">
         <v>1219</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F386', 'width': 294.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J125" t="n">
-        <v>0.41</v>
+        <v>0.574</v>
       </c>
       <c r="K125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>F115</t>
+          <t>F384</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N125" t="n">
-        <v>1870.386</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>HTV1983/23-2</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>HTV1983/23-2</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
-        <v>5</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>F81</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>2</v>
-      </c>
-      <c r="N126" t="n">
-        <v>1004.102</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>HTV1983/23-2</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>HTV1983/23-2</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
-        <v>5</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K127" t="n">
-        <v>5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>F83</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>2</v>
-      </c>
-      <c r="N127" t="n">
-        <v>1033.634</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>HTV1983/23-2</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>HTV1983/23-2</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
-        <v>5</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>F113</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="n">
-        <v>442.986</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="n">
-        <v>5485</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
-        <v>5</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K129" t="n">
-        <v>5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>F87</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>2</v>
-      </c>
-      <c r="N129" t="n">
-        <v>1079.902</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="n">
-        <v>5485</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>5</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K130" t="n">
-        <v>5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>F111</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>5</v>
-      </c>
-      <c r="N130" t="n">
-        <v>1934.824</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="n">
-        <v>5485</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>5</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>F108</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>2</v>
-      </c>
-      <c r="N131" t="n">
-        <v>584.947</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="n">
-        <v>5485</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K132" t="n">
-        <v>5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>F104</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="n">
-        <v>1052.904</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>HTV1983/23-1</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="n">
-        <v>5485</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
-        <v>5</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K133" t="n">
-        <v>5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>F99</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="n">
-        <v>809.926</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>X8-Di1</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>X8-Di1</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 6}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 3}, {'order_no': 'F88', 'width': 126.0, 'lines': 2}]</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>7</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="K134" t="n">
-        <v>3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>F87</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>6</v>
-      </c>
-      <c r="N134" t="n">
-        <v>2657.916</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>X8-Di1</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>X8-Di1</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 6}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 3}, {'order_no': 'F88', 'width': 126.0, 'lines': 2}]</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>7</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="K135" t="n">
-        <v>3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>F109</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>3</v>
-      </c>
-      <c r="N135" t="n">
-        <v>885.972</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>X8-Di1</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>X8-Di1</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 6}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 3}, {'order_no': 'F88', 'width': 126.0, 'lines': 2}]</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>7</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="K136" t="n">
-        <v>3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>F88</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>2</v>
-      </c>
-      <c r="N136" t="n">
-        <v>930.271</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="n">
-        <v>4153</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 4}, {'order_no': 'F159', 'width': 90.6, 'lines': 2}, {'order_no': 'F158', 'width': 86.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>15.79999999999995</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1.296</v>
-      </c>
-      <c r="K137" t="n">
-        <v>3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>F156</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>4</v>
-      </c>
-      <c r="N137" t="n">
-        <v>3188.85</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="n">
-        <v>4153</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 4}, {'order_no': 'F159', 'width': 90.6, 'lines': 2}, {'order_no': 'F158', 'width': 86.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>15.79999999999995</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1.296</v>
-      </c>
-      <c r="K138" t="n">
-        <v>3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>F159</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>2</v>
-      </c>
-      <c r="N138" t="n">
-        <v>617.329</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="n">
-        <v>4153</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 4}, {'order_no': 'F159', 'width': 90.6, 'lines': 2}, {'order_no': 'F158', 'width': 86.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>15.79999999999995</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1.296</v>
-      </c>
-      <c r="K139" t="n">
-        <v>3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>F158</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="n">
-        <v>292.993</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>HTV1772/23-Di1</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>HTV1772/23-Di1</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="n">
-        <v>4450</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1178</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>8</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.679</v>
-      </c>
-      <c r="K140" t="n">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>F156</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>5</v>
-      </c>
-      <c r="N140" t="n">
-        <v>4419.779</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>HTV1772/23-Di2</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>HTV1772/23-Di2</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="n">
-        <v>4450</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1178</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
-        </is>
-      </c>
-      <c r="I141" t="n">
-        <v>8</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.679</v>
-      </c>
-      <c r="K141" t="n">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>F156</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>5</v>
-      </c>
-      <c r="N141" t="n">
-        <v>4419.779</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>HTV1773/23-Di1</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>HTV1773/23-Di1</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="n">
-        <v>4570</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1178</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>8</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.679</v>
-      </c>
-      <c r="K142" t="n">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>F156</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>5</v>
-      </c>
-      <c r="N142" t="n">
-        <v>4538.964</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Z3-Di1</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Z3-Di1</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>6</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K143" t="n">
-        <v>4</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>F375</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="n">
-        <v>820.345</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Z3-Di1</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Z3-Di1</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>6</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K144" t="n">
-        <v>4</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>F370</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="n">
-        <v>500.41</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Z3-Di1</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Z3-Di1</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>6</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>F372</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>3</v>
-      </c>
-      <c r="N145" t="n">
-        <v>2054.963</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Z3-Di1</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Z3-Di1</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
-        </is>
-      </c>
-      <c r="I146" t="n">
-        <v>6</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K146" t="n">
-        <v>4</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>F374</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>2</v>
-      </c>
-      <c r="N146" t="n">
-        <v>1599.672</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Z4-Di1</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Z4-Di1</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="n">
-        <v>4250</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 6}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
-        </is>
-      </c>
-      <c r="I147" t="n">
-        <v>19</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1.559</v>
-      </c>
-      <c r="K147" t="n">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>F375</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>6</v>
-      </c>
-      <c r="N147" t="n">
-        <v>4183.757</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Z4-Di2</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Z4-Di2</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="n">
-        <v>4250</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 6}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>19</v>
-      </c>
-      <c r="J148" t="n">
-        <v>1.559</v>
-      </c>
-      <c r="K148" t="n">
-        <v>1</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>F375</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>6</v>
-      </c>
-      <c r="N148" t="n">
-        <v>4183.757</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I149" t="n">
-        <v>6</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K149" t="n">
-        <v>5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>F370</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="n">
-        <v>475.39</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I150" t="n">
-        <v>6</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K150" t="n">
-        <v>5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>F368</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>2</v>
-      </c>
-      <c r="N150" t="n">
-        <v>818.294</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I151" t="n">
-        <v>6</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K151" t="n">
-        <v>5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>F381</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>3</v>
-      </c>
-      <c r="N151" t="n">
-        <v>748.154</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>6</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K152" t="n">
-        <v>5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>F379</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>2</v>
-      </c>
-      <c r="N152" t="n">
-        <v>2260.049</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>X4-Di1</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>6</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K153" t="n">
-        <v>5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>F369</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="n">
-        <v>424.733</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Z3-Di2</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Z3-Di2</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>6</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K154" t="n">
-        <v>4</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>F375</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="n">
-        <v>820.345</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Z3-Di2</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Z3-Di2</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
-        </is>
-      </c>
-      <c r="I155" t="n">
-        <v>6</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K155" t="n">
-        <v>4</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>F370</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="n">
-        <v>500.41</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Z3-Di2</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Z3-Di2</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
-        </is>
-      </c>
-      <c r="I156" t="n">
-        <v>6</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K156" t="n">
-        <v>4</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>F368</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>3</v>
-      </c>
-      <c r="N156" t="n">
-        <v>1292.043</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Z3-Di2</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Z3-Di2</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
-        </is>
-      </c>
-      <c r="I157" t="n">
-        <v>6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K157" t="n">
-        <v>4</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>F381</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>9</v>
-      </c>
-      <c r="N157" t="n">
-        <v>2362.592</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="n">
-        <v>3750</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 3}, {'order_no': 'F368', 'width': 105.0, 'lines': 7}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>9</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="K158" t="n">
-        <v>3</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>F370</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>3</v>
-      </c>
-      <c r="N158" t="n">
-        <v>1125.923</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="n">
-        <v>3750</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 3}, {'order_no': 'F368', 'width': 105.0, 'lines': 7}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I159" t="n">
-        <v>9</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="K159" t="n">
-        <v>3</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>F368</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>7</v>
-      </c>
-      <c r="N159" t="n">
-        <v>2261.075</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="n">
-        <v>3750</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 3}, {'order_no': 'F368', 'width': 105.0, 'lines': 7}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I160" t="n">
-        <v>9</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="K160" t="n">
-        <v>3</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>F369</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="n">
-        <v>335.316</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>X4-Di2</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>X4-Di2</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 9}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I161" t="n">
-        <v>12</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="K161" t="n">
-        <v>2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>F370</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>9</v>
-      </c>
-      <c r="N161" t="n">
-        <v>4278.507</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>X4-Di2</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>X4-Di2</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 9}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I162" t="n">
-        <v>12</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="K162" t="n">
-        <v>2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>F369</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="n">
-        <v>424.733</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>HTV0802/24-D1</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>HTV0802/24-D1</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="n">
-        <v>5848</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I163" t="n">
-        <v>7</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="K163" t="n">
-        <v>3</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>F385</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="n">
-        <v>1189.749</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>HTV0802/24-D1</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>HTV0802/24-D1</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="n">
-        <v>5848</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I164" t="n">
-        <v>7</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="K164" t="n">
-        <v>3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>F387</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>2</v>
-      </c>
-      <c r="N164" t="n">
-        <v>4087.363</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>HTV0802/24-D1</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>HTV0802/24-D1</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="n">
-        <v>5848</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I165" t="n">
-        <v>7</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="K165" t="n">
-        <v>3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>F384</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="n">
-        <v>537.306</v>
+        <v>381.572</v>
       </c>
     </row>
   </sheetData>

--- a/scr/results/2709_test_result_batch1_s_6FG_weight.xlsx
+++ b/scr/results/2709_test_result_batch1_s_6FG_weight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,231 +508,231 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TR23AH00000052</t>
+          <t>TM23BH00000192</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TR23AH00000052</t>
+          <t>TM23BH00000192</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>7400</v>
+        <v>6590</v>
       </c>
       <c r="G2" t="n">
         <v>1219</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 3}, {'order_no': 'F387', 'width': 426.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 8}, {'order_no': 'F368', 'width': 105.0, 'lines': 1}, {'order_no': 'F381', 'width': 64.0, 'lines': 2}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>2.215</v>
+        <v>0.82</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>F385</t>
+          <t>F370</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>4516.489</v>
+        <v>5276.325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TR23AH00000052</t>
+          <t>TM23BH00000192</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TR23AH00000052</t>
+          <t>TM23BH00000192</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>7400</v>
+        <v>6590</v>
       </c>
       <c r="G3" t="n">
         <v>1219</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 3}, {'order_no': 'F387', 'width': 426.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 8}, {'order_no': 'F368', 'width': 105.0, 'lines': 1}, {'order_no': 'F381', 'width': 64.0, 'lines': 2}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>2.215</v>
+        <v>0.82</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>F384</t>
+          <t>F368</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2719.606</v>
+        <v>567.6369999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>TM23BH00000192</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>TM23BH00000192</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>4630</v>
+        <v>6590</v>
       </c>
       <c r="G4" t="n">
         <v>1219</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 8}, {'order_no': 'F368', 'width': 105.0, 'lines': 1}, {'order_no': 'F381', 'width': 64.0, 'lines': 2}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>0.41</v>
+        <v>0.82</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>F58</t>
+          <t>F381</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>2233.339</v>
+        <v>691.977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>TR23AH00000052</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>TR23AH00000052</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>4630</v>
+        <v>7400</v>
       </c>
       <c r="G5" t="n">
         <v>1219</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 3}, {'order_no': 'F387', 'width': 426.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J5" t="n">
-        <v>0.41</v>
+        <v>2.215</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>F385</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>516.5549999999999</v>
+        <v>4516.489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>TR23AH00000052</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TP236H005509-Di1</t>
+          <t>TR23AH00000052</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>4630</v>
+        <v>7400</v>
       </c>
       <c r="G6" t="n">
         <v>1219</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 3}, {'order_no': 'F387', 'width': 426.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
-        <v>0.41</v>
+        <v>2.215</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>F70</t>
+          <t>F384</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>516.5549999999999</v>
+        <v>2719.606</v>
       </c>
     </row>
     <row r="7">
@@ -757,7 +757,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 2}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F71', 'width': 70.0, 'lines': 6}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -767,18 +767,18 @@
         <v>0.41</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>F71</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1063.495</v>
+        <v>1116.669</v>
       </c>
     </row>
     <row r="8">
@@ -803,7 +803,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 1}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 2}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 4}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 2}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F71', 'width': 70.0, 'lines': 6}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -813,75 +813,75 @@
         <v>0.41</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>F72</t>
+          <t>F74</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>281.066</v>
+        <v>303.856</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>X5-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>X5-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>3500</v>
+        <v>4630</v>
       </c>
       <c r="G9" t="n">
         <v>1219</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 8}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F71', 'width': 70.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 0}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 2}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F71', 'width': 70.0, 'lines': 6}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.527</v>
+        <v>0.41</v>
       </c>
       <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>F70</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>F58</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>8</v>
-      </c>
       <c r="N9" t="n">
-        <v>3376.538</v>
+        <v>258.277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -895,7 +895,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 2}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F71', 'width': 70.0, 'lines': 6}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -905,29 +905,29 @@
         <v>0.41</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>F46</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1033.109</v>
+        <v>759.639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 2}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F71', 'width': 70.0, 'lines': 6}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -951,29 +951,29 @@
         <v>0.41</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>F74</t>
+          <t>F71</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>1823.134</v>
+        <v>1595.242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -987,7 +987,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 2}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F71', 'width': 70.0, 'lines': 6}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -997,29 +997,29 @@
         <v>0.41</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>F46</t>
+          <t>F67</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>759.639</v>
+        <v>227.892</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP236H005509-Di2</t>
+          <t>TP236H005509-Di1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 2}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 1}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F71', 'width': 70.0, 'lines': 6}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1043,18 +1043,18 @@
         <v>0.41</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>F67</t>
+          <t>F77</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>455.783</v>
+        <v>349.434</v>
       </c>
     </row>
     <row r="14">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 8}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 2}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 3}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1089,18 +1089,18 @@
         <v>0.41</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>F75</t>
+          <t>F74</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>322.847</v>
+        <v>2430.845</v>
       </c>
     </row>
     <row r="15">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 2}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F46', 'width': 100.0, 'lines': 2}, {'order_no': 'F67', 'width': 60.0, 'lines': 2}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 8}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 2}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 3}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1135,156 +1135,156 @@
         <v>0.41</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>F66</t>
+          <t>F70</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>216.497</v>
+        <v>258.277</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>3500</v>
+        <v>4630</v>
       </c>
       <c r="G16" t="n">
         <v>1219</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 8}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 2}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 3}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>F74</t>
+          <t>F75</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1378.179</v>
+        <v>645.693</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>3500</v>
+        <v>4630</v>
       </c>
       <c r="G17" t="n">
         <v>1219</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 8}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 2}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 3}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>F66</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>355.455</v>
+        <v>216.497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TP236H005509-Di2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>3500</v>
+        <v>4630</v>
       </c>
       <c r="G18" t="n">
         <v>1219</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 8}, {'order_no': 'F53', 'width': 123.8, 'lines': 0}, {'order_no': 'F55', 'width': 130.0, 'lines': 0}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 2}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 3}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.427</v>
+        <v>0.41</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>F55</t>
+          <t>F78</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>373.257</v>
+        <v>1059.696</v>
       </c>
     </row>
     <row r="19">
@@ -1309,28 +1309,28 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 4}, {'order_no': 'F55', 'width': 130.0, 'lines': 5}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5.200000000000045</v>
+        <v>5.799999999999955</v>
       </c>
       <c r="J19" t="n">
-        <v>0.427</v>
+        <v>0.476</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>F67</t>
+          <t>F53</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>172.272</v>
+        <v>1421.821</v>
       </c>
     </row>
     <row r="20">
@@ -1355,28 +1355,28 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 4}, {'order_no': 'F55', 'width': 130.0, 'lines': 5}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5.200000000000045</v>
+        <v>5.799999999999955</v>
       </c>
       <c r="J20" t="n">
-        <v>0.427</v>
+        <v>0.476</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>F75</t>
+          <t>F55</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>244.053</v>
+        <v>1866.284</v>
       </c>
     </row>
     <row r="21">
@@ -1401,120 +1401,120 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 0}, {'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 0}, {'order_no': 'F53', 'width': 123.8, 'lines': 4}, {'order_no': 'F55', 'width': 130.0, 'lines': 5}, {'order_no': 'F70', 'width': 68.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 0}, {'order_no': 'F66', 'width': 57.0, 'lines': 0}, {'order_no': 'F78', 'width': 93.0, 'lines': 0}, {'order_no': 'F72', 'width': 74.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5.200000000000045</v>
+        <v>5.799999999999955</v>
       </c>
       <c r="J21" t="n">
-        <v>0.427</v>
+        <v>0.476</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>F77</t>
+          <t>F70</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>264.151</v>
+        <v>195.242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>3500</v>
+        <v>4618</v>
       </c>
       <c r="G22" t="n">
         <v>1219</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 4}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5.200000000000045</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
-        <v>0.427</v>
+        <v>1.066</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>F66</t>
+          <t>F58</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>163.659</v>
+        <v>2227.55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>X5-Di1</t>
+          <t>TR242H00000035</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>3500</v>
+        <v>4618</v>
       </c>
       <c r="G23" t="n">
         <v>1219</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 0}, {'order_no': 'F74', 'width': 80.0, 'lines': 6}, {'order_no': 'F53', 'width': 123.8, 'lines': 1}, {'order_no': 'F55', 'width': 130.0, 'lines': 1}, {'order_no': 'F46', 'width': 100.0, 'lines': 0}, {'order_no': 'F67', 'width': 60.0, 'lines': 1}, {'order_no': 'F75', 'width': 85.0, 'lines': 1}, {'order_no': 'F77', 'width': 92.0, 'lines': 1}, {'order_no': 'F66', 'width': 57.0, 'lines': 1}, {'order_no': 'F78', 'width': 93.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 4}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5.200000000000045</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>0.427</v>
+        <v>1.066</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>F78</t>
+          <t>F57</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>534.044</v>
+        <v>2060.863</v>
       </c>
     </row>
     <row r="24">
@@ -1539,120 +1539,120 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 3}, {'order_no': 'F53', 'width': 123.8, 'lines': 2}, {'order_no': 'F55', 'width': 130.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F58', 'width': 147.0, 'lines': 4}, {'order_no': 'F57', 'width': 136.0, 'lines': 4}, {'order_no': 'F72', 'width': 74.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>43.40000000000009</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>3.56</v>
+        <v>1.066</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>F57</t>
+          <t>F72</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>1545.647</v>
+        <v>280.338</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>4618</v>
+        <v>11470</v>
       </c>
       <c r="G25" t="n">
         <v>1219</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 3}, {'order_no': 'F53', 'width': 123.8, 'lines': 2}, {'order_no': 'F55', 'width': 130.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 0}, {'order_no': 'F396', 'width': 130.0, 'lines': 1}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 7}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>43.40000000000009</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.56</v>
+        <v>0.41</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>F53</t>
+          <t>F410</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>937.996</v>
+        <v>677.473</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TR242H00000035</t>
+          <t>HTV1059/24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>4618</v>
+        <v>11470</v>
       </c>
       <c r="G26" t="n">
         <v>1219</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F57', 'width': 136.0, 'lines': 3}, {'order_no': 'F53', 'width': 123.8, 'lines': 2}, {'order_no': 'F55', 'width': 130.0, 'lines': 4}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 0}, {'order_no': 'F396', 'width': 130.0, 'lines': 1}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 7}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>43.40000000000009</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.56</v>
+        <v>0.41</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>F55</t>
+          <t>F415</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1969.943</v>
+        <v>846.842</v>
       </c>
     </row>
     <row r="27">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 0}, {'order_no': 'F396', 'width': 130.0, 'lines': 1}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 7}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1687,18 +1687,18 @@
         <v>0.41</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>F410</t>
+          <t>F396</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>677.473</v>
+        <v>1223.216</v>
       </c>
     </row>
     <row r="28">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 0}, {'order_no': 'F396', 'width': 130.0, 'lines': 1}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 7}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1733,18 +1733,18 @@
         <v>0.41</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>F415</t>
+          <t>F395</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N28" t="n">
-        <v>846.842</v>
+        <v>8233.183000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 0}, {'order_no': 'F396', 'width': 130.0, 'lines': 1}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 7}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1779,43 +1779,43 @@
         <v>0.41</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>F401</t>
+          <t>F406</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>3387.367</v>
+        <v>442.24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>11470</v>
+        <v>11295</v>
       </c>
       <c r="G30" t="n">
         <v>1219</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 2}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 4}, {'order_no': 'F396', 'width': 130.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1825,43 +1825,43 @@
         <v>0.41</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>F396</t>
+          <t>F410</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>4892.863</v>
+        <v>1334.274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>11470</v>
+        <v>11295</v>
       </c>
       <c r="G31" t="n">
         <v>1219</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 2}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 4}, {'order_no': 'F396', 'width': 130.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1871,43 +1871,43 @@
         <v>0.41</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>F395</t>
+          <t>F415</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>1176.169</v>
+        <v>833.921</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HTV1059/24</t>
+          <t>HTV1060/24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>11470</v>
+        <v>11295</v>
       </c>
       <c r="G32" t="n">
         <v>1219</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 2}, {'order_no': 'F396', 'width': 130.0, 'lines': 4}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F395', 'width': 125.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F406', 'width': 47.0, 'lines': 1}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 2}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 4}, {'order_no': 'F396', 'width': 130.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1917,18 +1917,18 @@
         <v>0.41</v>
       </c>
       <c r="K32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>F406</t>
+          <t>F401</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>442.24</v>
+        <v>6671.37</v>
       </c>
     </row>
     <row r="33">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 2}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F401', 'width': 180.0, 'lines': 4}, {'order_no': 'F396', 'width': 130.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 0}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1963,43 +1963,43 @@
         <v>0.41</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>F410</t>
+          <t>F396</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" t="n">
-        <v>667.1369999999999</v>
+        <v>2409.106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>11295</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="n">
         <v>1219</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 5}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F391', 'width': 104.0, 'lines': 4}, {'order_no': 'F407', 'width': 58.0, 'lines': 6}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2009,43 +2009,43 @@
         <v>0.41</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>F415</t>
+          <t>F410</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>1667.842</v>
+        <v>2953.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>11295</v>
+        <v>10000</v>
       </c>
       <c r="G35" t="n">
         <v>1219</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 5}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F391', 'width': 104.0, 'lines': 4}, {'order_no': 'F407', 'width': 58.0, 'lines': 6}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2055,43 +2055,43 @@
         <v>0.41</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>F391</t>
+          <t>F415</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>2890.927</v>
+        <v>738.3099999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>11295</v>
+        <v>10000</v>
       </c>
       <c r="G36" t="n">
         <v>1219</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 5}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F391', 'width': 104.0, 'lines': 4}, {'order_no': 'F407', 'width': 58.0, 'lines': 6}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2101,43 +2101,43 @@
         <v>0.41</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>F407</t>
+          <t>F391</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>2687.08</v>
+        <v>3412.633</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>X7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>11295</v>
+        <v>10000</v>
       </c>
       <c r="G37" t="n">
         <v>1219</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 5}, {'order_no': 'F415', 'width': 90.0, 'lines': 1}, {'order_no': 'F391', 'width': 104.0, 'lines': 4}, {'order_no': 'F407', 'width': 58.0, 'lines': 6}, {'order_no': 'F411', 'width': 75.0, 'lines': 0}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2147,43 +2147,43 @@
         <v>0.41</v>
       </c>
       <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>F407</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>6</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>F411</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>3</v>
-      </c>
       <c r="N37" t="n">
-        <v>2084.803</v>
+        <v>2854.799</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>Z5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HTV1060/24</t>
+          <t>Z5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>11295</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="n">
         <v>1219</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 1}, {'order_no': 'F415', 'width': 90.0, 'lines': 2}, {'order_no': 'F391', 'width': 104.0, 'lines': 3}, {'order_no': 'F407', 'width': 58.0, 'lines': 5}, {'order_no': 'F411', 'width': 75.0, 'lines': 3}, {'order_no': 'F397', 'width': 135.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 0}, {'order_no': 'F415', 'width': 90.0, 'lines': 9}, {'order_no': 'F391', 'width': 104.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 4}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2193,248 +2193,248 @@
         <v>0.41</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>F397</t>
+          <t>F415</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N38" t="n">
-        <v>1250.882</v>
+        <v>2657.916</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>Z5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>Z5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G39" t="n">
         <v>1219</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 13}, {'order_no': 'F415', 'width': 90.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 0}, {'order_no': 'F415', 'width': 90.0, 'lines': 9}, {'order_no': 'F391', 'width': 104.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 4}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.066</v>
+        <v>0.41</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>F410</t>
+          <t>F391</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>7678.425</v>
+        <v>341.263</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>Z5</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>Z5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G40" t="n">
         <v>1219</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 13}, {'order_no': 'F415', 'width': 90.0, 'lines': 3}]</t>
+          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 0}, {'order_no': 'F415', 'width': 90.0, 'lines': 9}, {'order_no': 'F391', 'width': 104.0, 'lines': 1}, {'order_no': 'F407', 'width': 58.0, 'lines': 0}, {'order_no': 'F411', 'width': 75.0, 'lines': 4}, {'order_no': 'F397', 'width': 135.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.066</v>
+        <v>0.41</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>F415</t>
+          <t>F411</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
-        <v>2214.93</v>
+        <v>984.413</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>X9</t>
+          <t>HTV0828/23-D1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>X9</t>
+          <t>HTV0828/23-D1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>9500</v>
+        <v>4266</v>
       </c>
       <c r="G41" t="n">
-        <v>1219</v>
+        <v>1108</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 3}, {'order_no': 'F415', 'width': 90.0, 'lines': 11}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 5}, {'order_no': 'F141', 'width': 145.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 0}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 0}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 0}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
-        <v>1.066</v>
+        <v>0.722</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>F410</t>
+          <t>F146</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>1683.347</v>
+        <v>4235.199</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>X9</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>X9</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>9500</v>
+        <v>5350</v>
       </c>
       <c r="G42" t="n">
         <v>1219</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F410', 'width': 72.0, 'lines': 3}, {'order_no': 'F415', 'width': 90.0, 'lines': 11}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 1}, {'order_no': 'F141', 'width': 145.0, 'lines': 2}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 5}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 1}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>1.066</v>
+        <v>0.492</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>F415</t>
+          <t>F146</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>7715.34</v>
+        <v>965.546</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HTV0828/23-D1</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HTV0828/23-D1</t>
+          <t>HTV0895/23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>4266</v>
+        <v>5350</v>
       </c>
       <c r="G43" t="n">
-        <v>1108</v>
+        <v>1219</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 5}, {'order_no': 'F141', 'width': 145.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 0}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 0}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 0}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 1}, {'order_no': 'F141', 'width': 145.0, 'lines': 2}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 5}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 1}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>0.722</v>
+        <v>0.492</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>F146</t>
+          <t>F141</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>4235.199</v>
+        <v>1272.765</v>
       </c>
     </row>
     <row r="44">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 1}, {'order_no': 'F141', 'width': 145.0, 'lines': 2}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 5}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 1}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -2469,18 +2469,18 @@
         <v>0.492</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>F141</t>
+          <t>F134</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>3181.911</v>
+        <v>465.217</v>
       </c>
     </row>
     <row r="45">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 1}, {'order_no': 'F141', 'width': 145.0, 'lines': 2}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 5}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 1}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -2515,18 +2515,18 @@
         <v>0.492</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>F134</t>
+          <t>F153</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>465.217</v>
+        <v>1536.095</v>
       </c>
     </row>
     <row r="46">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 1}, {'order_no': 'F141', 'width': 145.0, 'lines': 2}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 5}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 1}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2561,18 +2561,18 @@
         <v>0.492</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>F153</t>
+          <t>F138</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>921.657</v>
+        <v>557.383</v>
       </c>
     </row>
     <row r="47">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 1}, {'order_no': 'F141', 'width': 145.0, 'lines': 2}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 5}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 1}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2607,96 +2607,96 @@
         <v>0.492</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>F151</t>
+          <t>F136</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>228.22</v>
+        <v>526.6609999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>X4-Di2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HTV0895/23</t>
+          <t>X4-Di2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>5350</v>
+        <v>4750</v>
       </c>
       <c r="G48" t="n">
         <v>1219</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 5}, {'order_no': 'F134', 'width': 106.0, 'lines': 1}, {'order_no': 'F142', 'width': 150.0, 'lines': 0}, {'order_no': 'F153', 'width': 70.0, 'lines': 3}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F136', 'width': 120.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F146', 'width': 220.0, 'lines': 0}, {'order_no': 'F141', 'width': 145.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 0}, {'order_no': 'F142', 'width': 150.0, 'lines': 8}, {'order_no': 'F153', 'width': 70.0, 'lines': 0}, {'order_no': 'F154', 'width': 72.0, 'lines': 0}, {'order_no': 'F138', 'width': 127.0, 'lines': 0}, {'order_no': 'F151', 'width': 52.0, 'lines': 0}, {'order_no': 'F136', 'width': 120.0, 'lines': 0}, {'order_no': 'F152', 'width': 63.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J48" t="n">
-        <v>0.492</v>
+        <v>1.559</v>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>F136</t>
+          <t>F142</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N48" t="n">
-        <v>526.6609999999999</v>
+        <v>4675.964</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="n">
         <v>1219</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F141', 'width': 145.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 9}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>1.066</v>
+        <v>0.492</v>
       </c>
       <c r="K49" t="n">
         <v>4</v>
@@ -2707,134 +2707,134 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N49" t="n">
-        <v>1956.522</v>
+        <v>3913.043</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="n">
         <v>1219</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F141', 'width': 145.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 9}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>1.066</v>
+        <v>0.492</v>
       </c>
       <c r="K50" t="n">
         <v>4</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>F142</t>
+          <t>F154</t>
         </is>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="n">
-        <v>922.888</v>
+        <v>590.648</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="n">
         <v>1219</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F141', 'width': 145.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 9}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>1.066</v>
+        <v>0.492</v>
       </c>
       <c r="K51" t="n">
         <v>4</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>F154</t>
+          <t>F151</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>442.986</v>
+        <v>213.29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>X3-Di1</t>
+          <t>Z3-Di1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="n">
         <v>1219</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F134', 'width': 106.0, 'lines': 6}, {'order_no': 'F142', 'width': 150.0, 'lines': 2}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F152', 'width': 63.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F141', 'width': 145.0, 'lines': 0}, {'order_no': 'F134', 'width': 106.0, 'lines': 9}, {'order_no': 'F154', 'width': 72.0, 'lines': 2}, {'order_no': 'F151', 'width': 52.0, 'lines': 1}, {'order_no': 'F152', 'width': 63.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>1.066</v>
+        <v>0.492</v>
       </c>
       <c r="K52" t="n">
         <v>4</v>
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>387.613</v>
+        <v>258.409</v>
       </c>
     </row>
     <row r="53">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 3}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>4383.921</v>
+        <v>2191.961</v>
       </c>
     </row>
     <row r="56">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 3}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3025,14 +3025,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>F349</t>
+          <t>F347</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>2100.082</v>
+        <v>2657.916</v>
       </c>
     </row>
     <row r="57">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 3}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3071,14 +3071,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>F347</t>
+          <t>F348</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>885.972</v>
+        <v>1929.45</v>
       </c>
     </row>
     <row r="58">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 0}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 1}, {'order_no': 'F349', 'width': 160.0, 'lines': 0}, {'order_no': 'F347', 'width': 135.0, 'lines': 3}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 0}, {'order_no': 'F357', 'width': 90.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>590.648</v>
+        <v>1181.296</v>
       </c>
     </row>
     <row r="59">
@@ -3149,17 +3149,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 3}, {'order_no': 'F354', 'width': 55.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J59" t="n">
-        <v>0.984</v>
+        <v>1.313</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3195,28 +3195,28 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 3}, {'order_no': 'F354', 'width': 55.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J60" t="n">
-        <v>0.984</v>
+        <v>1.313</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>F347</t>
+          <t>F349</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>486.731</v>
+        <v>1730.599</v>
       </c>
     </row>
     <row r="61">
@@ -3241,74 +3241,74 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F349', 'width': 160.0, 'lines': 3}, {'order_no': 'F354', 'width': 55.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J61" t="n">
-        <v>0.984</v>
+        <v>1.313</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>F348</t>
+          <t>F354</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>1059.992</v>
+        <v>198.298</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>TM236H00000365</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TP236H005510</t>
+          <t>TM236H00000365</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>4395</v>
+        <v>6970</v>
       </c>
       <c r="G62" t="n">
         <v>1219</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F351', 'width': 334.0, 'lines': 2}, {'order_no': 'F347', 'width': 135.0, 'lines': 1}, {'order_no': 'F348', 'width': 147.0, 'lines': 2}, {'order_no': 'F354', 'width': 55.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 4}, {'order_no': 'F261', 'width': 300.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
-        <v>0.984</v>
+        <v>0.574</v>
       </c>
       <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>F259</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>4</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>F354</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>2</v>
-      </c>
       <c r="N62" t="n">
-        <v>396.596</v>
+        <v>4231.173</v>
       </c>
     </row>
     <row r="63">
@@ -3347,131 +3347,131 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>F259</t>
+          <t>F179</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>4231.173</v>
+        <v>2698.802</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>TP231H004996-Di1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TM236H00000365</t>
+          <t>TP231H004996-Di1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>6970</v>
+        <v>3650</v>
       </c>
       <c r="G64" t="n">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 4}, {'order_no': 'F261', 'width': 300.0, 'lines': 0}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 2}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 0}, {'order_no': 'F261', 'width': 300.0, 'lines': 4}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>0.574</v>
+        <v>0.662</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>F179</t>
+          <t>F261</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N64" t="n">
-        <v>2698.802</v>
+        <v>3625.828</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TP231H004996-Di1</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TP231H004996-Di1</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>3650</v>
+        <v>3795</v>
       </c>
       <c r="G65" t="n">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F259', 'width': 185.0, 'lines': 0}, {'order_no': 'F261', 'width': 300.0, 'lines': 4}, {'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F179', 'width': 236.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J65" t="n">
-        <v>0.662</v>
+        <v>1.969</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>F261</t>
+          <t>F256</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N65" t="n">
-        <v>3625.828</v>
+        <v>1712.264</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TM236H00000364-Di1</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TM236H00000364-Di1</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>4320</v>
+        <v>3795</v>
       </c>
       <c r="G66" t="n">
         <v>1219</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 5}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3481,43 +3481,43 @@
         <v>1.969</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>F178</t>
+          <t>F176</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>3809.68</v>
+        <v>1634.434</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TM236H00000364-Di1</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TM236H00000364-Di1</t>
+          <t>TM246H00000203-Di1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>4320</v>
+        <v>3795</v>
       </c>
       <c r="G67" t="n">
         <v>1219</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 0}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 5}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -3527,7 +3527,7 @@
         <v>1.969</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3538,42 +3538,42 @@
         <v>2</v>
       </c>
       <c r="N67" t="n">
-        <v>425.267</v>
+        <v>373.585</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>TP231H004996-Di2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>TP231H004996-Di2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>3795</v>
+        <v>3650</v>
       </c>
       <c r="G68" t="n">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 3}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J68" t="n">
-        <v>1.969</v>
+        <v>1.076</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3584,191 +3584,191 @@
         <v>2</v>
       </c>
       <c r="N68" t="n">
-        <v>1712.264</v>
+        <v>1661.838</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>TP231H004996-Di2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>TP231H004996-Di2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>3795</v>
+        <v>3650</v>
       </c>
       <c r="G69" t="n">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 3}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J69" t="n">
-        <v>1.969</v>
+        <v>1.076</v>
       </c>
       <c r="K69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>F176</t>
+          <t>F178</t>
         </is>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>1634.434</v>
+        <v>1948.882</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>HTV0520/23-Di1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TM246H00000203-Di1</t>
+          <t>HTV0520/23-Di1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>3795</v>
+        <v>5780</v>
       </c>
       <c r="G70" t="n">
         <v>1219</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 3}, {'order_no': 'F178', 'width': 215.0, 'lines': 0}, {'order_no': 'F257', 'width': 60.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 0}, {'order_no': 'F125', 'width': 400.0, 'lines': 3}, {'order_no': 'F123', 'width': 173.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J70" t="n">
-        <v>1.969</v>
+        <v>1.559</v>
       </c>
       <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>F125</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>3</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>F257</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>2</v>
-      </c>
       <c r="N70" t="n">
-        <v>373.585</v>
+        <v>5689.91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TP231H004996-Di2</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TP231H004996-Di2</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>3650</v>
+        <v>5780</v>
       </c>
       <c r="G71" t="n">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 3}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J71" t="n">
-        <v>1.076</v>
+        <v>2.051</v>
       </c>
       <c r="K71" t="n">
         <v>2</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>F256</t>
+          <t>F124</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71" t="n">
-        <v>1661.838</v>
+        <v>3200.574</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TP231H004996-Di2</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TP231H004996-Di2</t>
+          <t>HTV0520/23-Di2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>3650</v>
+        <v>5780</v>
       </c>
       <c r="G72" t="n">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F256', 'width': 275.0, 'lines': 2}, {'order_no': 'F176', 'width': 175.0, 'lines': 0}, {'order_no': 'F178', 'width': 215.0, 'lines': 3}, {'order_no': 'F257', 'width': 60.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 3}, {'order_no': 'F125', 'width': 400.0, 'lines': 0}, {'order_no': 'F123', 'width': 173.0, 'lines': 3}]</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J72" t="n">
-        <v>1.076</v>
+        <v>2.051</v>
       </c>
       <c r="K72" t="n">
         <v>2</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>F178</t>
+          <t>F123</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>1948.882</v>
+        <v>2460.886</v>
       </c>
     </row>
     <row r="73">
@@ -3958,348 +3958,348 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Y1</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Y1</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G77" t="n">
         <v>1219</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 0}, {'order_no': 'F125', 'width': 400.0, 'lines': 3}, {'order_no': 'F123', 'width': 173.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 1}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 0}, {'order_no': 'F91', 'width': 138.0, 'lines': 3}, {'order_no': 'F81', 'width': 102.0, 'lines': 1}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 3}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>1.559</v>
+        <v>0.41</v>
       </c>
       <c r="K77" t="n">
+        <v>6</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>F87</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>F125</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>3</v>
-      </c>
       <c r="N77" t="n">
-        <v>3937.654</v>
+        <v>590.648</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>5780</v>
+        <v>6000</v>
       </c>
       <c r="G78" t="n">
         <v>1219</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 1}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 0}, {'order_no': 'F91', 'width': 138.0, 'lines': 3}, {'order_no': 'F81', 'width': 102.0, 'lines': 1}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 3}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>1.723</v>
+        <v>0.41</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>F124</t>
+          <t>F84</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>1066.858</v>
+        <v>541.427</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>5780</v>
+        <v>6000</v>
       </c>
       <c r="G79" t="n">
         <v>1219</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 1}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 0}, {'order_no': 'F91', 'width': 138.0, 'lines': 3}, {'order_no': 'F81', 'width': 102.0, 'lines': 1}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 3}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J79" t="n">
-        <v>1.723</v>
+        <v>0.41</v>
       </c>
       <c r="K79" t="n">
+        <v>6</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>F91</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>3</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>F125</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>2</v>
-      </c>
       <c r="N79" t="n">
-        <v>3793.273</v>
+        <v>2037.736</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di1</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>5780</v>
+        <v>6000</v>
       </c>
       <c r="G80" t="n">
         <v>1219</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 1}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 0}, {'order_no': 'F91', 'width': 138.0, 'lines': 3}, {'order_no': 'F81', 'width': 102.0, 'lines': 1}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 3}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>1.723</v>
+        <v>0.41</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>F123</t>
+          <t>F81</t>
         </is>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>820.295</v>
+        <v>502.051</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>5780</v>
+        <v>6000</v>
       </c>
       <c r="G81" t="n">
         <v>1219</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 1}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 0}, {'order_no': 'F91', 'width': 138.0, 'lines': 3}, {'order_no': 'F81', 'width': 102.0, 'lines': 1}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 3}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J81" t="n">
-        <v>1.723</v>
+        <v>0.41</v>
       </c>
       <c r="K81" t="n">
+        <v>6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>F88</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>3</v>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>F124</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
       <c r="N81" t="n">
-        <v>1066.858</v>
+        <v>1860.541</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>HTV1983/23-2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>5780</v>
+        <v>6000</v>
       </c>
       <c r="G82" t="n">
         <v>1219</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 1}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 0}, {'order_no': 'F91', 'width': 138.0, 'lines': 3}, {'order_no': 'F81', 'width': 102.0, 'lines': 1}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 3}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>1.723</v>
+        <v>0.41</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>F125</t>
+          <t>F113</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>3793.273</v>
+        <v>442.986</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>HTV0520/23-Di2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>5780</v>
+        <v>5485</v>
       </c>
       <c r="G83" t="n">
         <v>1219</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F124', 'width': 225.0, 'lines': 1}, {'order_no': 'F125', 'width': 400.0, 'lines': 2}, {'order_no': 'F123', 'width': 173.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 3}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>1.723</v>
+        <v>0.41</v>
       </c>
       <c r="K83" t="n">
+        <v>5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>F87</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>3</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>F123</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
       <c r="N83" t="n">
-        <v>820.295</v>
+        <v>1619.852</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>6000</v>
+        <v>5485</v>
       </c>
       <c r="G84" t="n">
         <v>1219</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 3}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -4317,35 +4317,35 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>1624.282</v>
+        <v>494.955</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>6000</v>
+        <v>5485</v>
       </c>
       <c r="G85" t="n">
         <v>1219</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 3}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -4366,32 +4366,32 @@
         <v>4</v>
       </c>
       <c r="N85" t="n">
-        <v>1870.386</v>
+        <v>1709.844</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>6000</v>
+        <v>5485</v>
       </c>
       <c r="G86" t="n">
         <v>1219</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 3}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -4405,39 +4405,39 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>F81</t>
+          <t>F108</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="n">
-        <v>1004.102</v>
+        <v>584.947</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>HTV1983/23-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>6000</v>
+        <v>5485</v>
       </c>
       <c r="G87" t="n">
         <v>1219</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 3}, {'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -4451,39 +4451,39 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>F83</t>
+          <t>F104</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>1033.634</v>
+        <v>1052.904</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HTV1983/23-2</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="G88" t="n">
         <v>1219</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 0}, {'order_no': 'F84', 'width': 110.0, 'lines': 3}, {'order_no': 'F111', 'width': 86.0, 'lines': 0}, {'order_no': 'F115', 'width': 95.0, 'lines': 4}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F81', 'width': 102.0, 'lines': 2}, {'order_no': 'F83', 'width': 105.0, 'lines': 2}, {'order_no': 'F108', 'width': 65.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 0}, {'order_no': 'F99', 'width': 180.0, 'lines': 0}, {'order_no': 'F113', 'width': 90.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 4}, {'order_no': 'F109', 'width': 80.0, 'lines': 2}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -4497,39 +4497,39 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>F113</t>
+          <t>F84</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>442.986</v>
+        <v>428.63</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
-        <v>5485</v>
+        <v>4750</v>
       </c>
       <c r="G89" t="n">
         <v>1219</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 4}, {'order_no': 'F109', 'width': 80.0, 'lines': 2}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -4543,39 +4543,39 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>F87</t>
+          <t>F111</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N89" t="n">
-        <v>1079.902</v>
+        <v>1340.443</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>5485</v>
+        <v>4750</v>
       </c>
       <c r="G90" t="n">
         <v>1219</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 4}, {'order_no': 'F109', 'width': 80.0, 'lines': 2}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -4589,39 +4589,39 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>F111</t>
+          <t>F83</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N90" t="n">
-        <v>1934.824</v>
+        <v>1636.587</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>5485</v>
+        <v>4750</v>
       </c>
       <c r="G91" t="n">
         <v>1219</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 4}, {'order_no': 'F109', 'width': 80.0, 'lines': 2}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -4635,39 +4635,39 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>F108</t>
+          <t>F109</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="n">
-        <v>584.947</v>
+        <v>623.462</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>X9-Di1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>5485</v>
+        <v>4750</v>
       </c>
       <c r="G92" t="n">
         <v>1219</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F84', 'width': 110.0, 'lines': 1}, {'order_no': 'F111', 'width': 86.0, 'lines': 4}, {'order_no': 'F83', 'width': 105.0, 'lines': 4}, {'order_no': 'F109', 'width': 80.0, 'lines': 2}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -4681,233 +4681,233 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>F104</t>
+          <t>F99</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>1052.904</v>
+        <v>701.395</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>HTV0802/24-D1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HTV1983/23-1</t>
+          <t>HTV0802/24-D1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>5485</v>
+        <v>5848</v>
       </c>
       <c r="G93" t="n">
         <v>1219</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 2}, {'order_no': 'F111', 'width': 86.0, 'lines': 5}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F108', 'width': 65.0, 'lines': 2}, {'order_no': 'F109', 'width': 80.0, 'lines': 0}, {'order_no': 'F88', 'width': 126.0, 'lines': 0}, {'order_no': 'F104', 'width': 234.0, 'lines': 1}, {'order_no': 'F99', 'width': 180.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 4}, {'order_no': 'F159', 'width': 90.6, 'lines': 3}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>11.20000000000005</v>
       </c>
       <c r="J93" t="n">
-        <v>0.41</v>
+        <v>0.919</v>
       </c>
       <c r="K93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>F99</t>
+          <t>F156</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N93" t="n">
-        <v>809.926</v>
+        <v>4490.343</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>X8-Di1</t>
+          <t>HTV0802/24-D1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>X8-Di1</t>
+          <t>HTV0802/24-D1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>4500</v>
+        <v>5848</v>
       </c>
       <c r="G94" t="n">
         <v>1219</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 6}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 3}, {'order_no': 'F88', 'width': 126.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 4}, {'order_no': 'F159', 'width': 90.6, 'lines': 3}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
+        <v>11.20000000000005</v>
       </c>
       <c r="J94" t="n">
-        <v>0.574</v>
+        <v>0.919</v>
       </c>
       <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>F159</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>3</v>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>F87</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>6</v>
-      </c>
       <c r="N94" t="n">
-        <v>2657.916</v>
+        <v>1303.926</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>X8-Di1</t>
+          <t>HTV1772/23-Di1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>X8-Di1</t>
+          <t>HTV1772/23-Di1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>4500</v>
+        <v>4450</v>
       </c>
       <c r="G95" t="n">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 6}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 3}, {'order_no': 'F88', 'width': 126.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J95" t="n">
-        <v>0.574</v>
+        <v>0.679</v>
       </c>
       <c r="K95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>F109</t>
+          <t>F156</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N95" t="n">
-        <v>885.972</v>
+        <v>4419.779</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>X8-Di1</t>
+          <t>HTV1772/23-Di2</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>X8-Di1</t>
+          <t>HTV1772/23-Di2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>4500</v>
+        <v>4450</v>
       </c>
       <c r="G96" t="n">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F87', 'width': 120.0, 'lines': 6}, {'order_no': 'F91', 'width': 138.0, 'lines': 0}, {'order_no': 'F109', 'width': 80.0, 'lines': 3}, {'order_no': 'F88', 'width': 126.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J96" t="n">
-        <v>0.574</v>
+        <v>0.679</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>F88</t>
+          <t>F156</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N96" t="n">
-        <v>930.271</v>
+        <v>4419.779</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HTV0802/24-D1</t>
+          <t>HTV1773/23-Di1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HTV0802/24-D1</t>
+          <t>HTV1773/23-Di1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
-        <v>5848</v>
+        <v>4570</v>
       </c>
       <c r="G97" t="n">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 4}, {'order_no': 'F159', 'width': 90.6, 'lines': 3}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>11.20000000000005</v>
+        <v>8</v>
       </c>
       <c r="J97" t="n">
-        <v>0.919</v>
+        <v>0.679</v>
       </c>
       <c r="K97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4915,251 +4915,251 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N97" t="n">
-        <v>4490.343</v>
+        <v>4538.964</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HTV0802/24-D1</t>
+          <t>HTV1773/23-Di2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HTV0802/24-D1</t>
+          <t>HTV1773/23-Di2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>5848</v>
+        <v>4570</v>
       </c>
       <c r="G98" t="n">
-        <v>1219</v>
+        <v>1178</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 4}, {'order_no': 'F159', 'width': 90.6, 'lines': 3}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>11.20000000000005</v>
+        <v>8</v>
       </c>
       <c r="J98" t="n">
-        <v>0.919</v>
+        <v>0.679</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>F159</t>
+          <t>F156</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N98" t="n">
-        <v>1303.926</v>
+        <v>4538.964</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HTV1772/23-Di1</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HTV1772/23-Di1</t>
+          <t>X4-Di1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>4450</v>
+        <v>4750</v>
       </c>
       <c r="G99" t="n">
-        <v>1178</v>
+        <v>1219</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 6}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J99" t="n">
-        <v>0.679</v>
+        <v>1.559</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>F156</t>
+          <t>F375</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N99" t="n">
-        <v>4419.779</v>
+        <v>4675.964</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HTV1772/23-Di2</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HTV1772/23-Di2</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>4450</v>
+        <v>5000</v>
       </c>
       <c r="G100" t="n">
-        <v>1178</v>
+        <v>1219</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 4}, {'order_no': 'F372', 'width': 167.0, 'lines': 1}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J100" t="n">
-        <v>0.679</v>
+        <v>0.492</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>F156</t>
+          <t>F368</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N100" t="n">
-        <v>4419.779</v>
+        <v>861.362</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HTV1773/23-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>HTV1773/23-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
-        <v>4570</v>
+        <v>5000</v>
       </c>
       <c r="G101" t="n">
-        <v>1178</v>
+        <v>1219</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 4}, {'order_no': 'F372', 'width': 167.0, 'lines': 1}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J101" t="n">
-        <v>0.679</v>
+        <v>0.492</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>F156</t>
+          <t>F381</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N101" t="n">
-        <v>4538.964</v>
+        <v>1050.041</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HTV1773/23-Di2</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HTV1773/23-Di2</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>4570</v>
+        <v>5000</v>
       </c>
       <c r="G102" t="n">
-        <v>1178</v>
+        <v>1219</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F156', 'width': 234.0, 'lines': 5}, {'order_no': 'F159', 'width': 90.6, 'lines': 0}, {'order_no': 'F158', 'width': 86.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 4}, {'order_no': 'F372', 'width': 167.0, 'lines': 1}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J102" t="n">
-        <v>0.679</v>
+        <v>0.492</v>
       </c>
       <c r="K102" t="n">
+        <v>4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>F372</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>F156</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>5</v>
-      </c>
       <c r="N102" t="n">
-        <v>4538.964</v>
+        <v>684.9880000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Z3-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Z3-Di1</t>
+          <t>Z3-Di2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 4}, {'order_no': 'F372', 'width': 167.0, 'lines': 1}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -5187,131 +5187,131 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>F375</t>
+          <t>F379</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N103" t="n">
-        <v>820.345</v>
+        <v>2378.999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Z3-Di1</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Z3-Di1</t>
+          <t>X3-Di1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="G104" t="n">
         <v>1219</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 6}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I104" t="n">
+        <v>19</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>F375</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>6</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>F370</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
       <c r="N104" t="n">
-        <v>500.41</v>
+        <v>3691.55</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Z3-Di1</t>
+          <t>X3-Di2</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Z3-Di1</t>
+          <t>X3-Di2</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="G105" t="n">
         <v>1219</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 6}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
         </is>
       </c>
       <c r="I105" t="n">
+        <v>19</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>F375</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>6</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="K105" t="n">
-        <v>4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>F372</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>3</v>
-      </c>
       <c r="N105" t="n">
-        <v>2054.963</v>
+        <v>3691.55</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Z3-Di1</t>
+          <t>Z4-Di1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Z3-Di1</t>
+          <t>Z4-Di1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>4250</v>
       </c>
       <c r="G106" t="n">
         <v>1219</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 2}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 14}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -5321,18 +5321,18 @@
         <v>0.492</v>
       </c>
       <c r="K106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>F374</t>
+          <t>F370</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N106" t="n">
-        <v>1599.672</v>
+        <v>425.349</v>
       </c>
     </row>
     <row r="107">
@@ -5357,39 +5357,39 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 6}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 14}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J107" t="n">
-        <v>1.559</v>
+        <v>0.492</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>F375</t>
+          <t>F381</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N107" t="n">
-        <v>4183.757</v>
+        <v>3123.872</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Z4-Di2</t>
+          <t>Z4-Di1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Z4-Di2</t>
+          <t>Z4-Di1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -5403,63 +5403,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 6}, {'order_no': 'F370', 'width': 122.0, 'lines': 0}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F381', 'width': 64.0, 'lines': 14}, {'order_no': 'F372', 'width': 167.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}, {'order_no': 'F374', 'width': 195.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J108" t="n">
-        <v>1.559</v>
+        <v>0.492</v>
       </c>
       <c r="K108" t="n">
+        <v>3</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>F374</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>F375</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>6</v>
-      </c>
       <c r="N108" t="n">
-        <v>4183.757</v>
+        <v>679.861</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>HTV1363/23</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>HTV1363/23</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="G109" t="n">
         <v>1219</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 2}, {'order_no': 'F368', 'width': 105.0, 'lines': 5}, {'order_no': 'F372', 'width': 167.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J109" t="n">
-        <v>0.492</v>
+        <v>0.574</v>
       </c>
       <c r="K109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5467,45 +5467,45 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N109" t="n">
-        <v>475.39</v>
+        <v>800.6559999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>HTV1363/23</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>HTV1363/23</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="G110" t="n">
         <v>1219</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 2}, {'order_no': 'F368', 'width': 105.0, 'lines': 5}, {'order_no': 'F372', 'width': 167.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J110" t="n">
-        <v>0.492</v>
+        <v>0.574</v>
       </c>
       <c r="K110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5513,127 +5513,127 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N110" t="n">
-        <v>818.294</v>
+        <v>1722.724</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>HTV1363/23</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>HTV1363/23</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="G111" t="n">
         <v>1219</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 2}, {'order_no': 'F368', 'width': 105.0, 'lines': 5}, {'order_no': 'F372', 'width': 167.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J111" t="n">
-        <v>0.492</v>
+        <v>0.574</v>
       </c>
       <c r="K111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>F381</t>
+          <t>F372</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N111" t="n">
-        <v>748.154</v>
+        <v>1095.98</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>HTV1363/23</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>HTV1363/23</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>4750</v>
+        <v>4000</v>
       </c>
       <c r="G112" t="n">
         <v>1219</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 2}, {'order_no': 'F368', 'width': 105.0, 'lines': 5}, {'order_no': 'F372', 'width': 167.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J112" t="n">
-        <v>0.492</v>
+        <v>0.574</v>
       </c>
       <c r="K112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>F379</t>
+          <t>F369</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N112" t="n">
-        <v>2260.049</v>
+        <v>357.67</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>Z4-Di2</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>X4-Di1</t>
+          <t>Z4-Di2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="n">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="G113" t="n">
         <v>1219</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 0}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 2}, {'order_no': 'F381', 'width': 64.0, 'lines': 3}, {'order_no': 'F379', 'width': 290.0, 'lines': 2}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 5}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 1}, {'order_no': 'F369', 'width': 109.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -5643,43 +5643,43 @@
         <v>0.492</v>
       </c>
       <c r="K113" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>F369</t>
+          <t>F370</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N113" t="n">
-        <v>424.733</v>
+        <v>2126.743</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Z3-Di2</t>
+          <t>Z4-Di2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Z3-Di2</t>
+          <t>Z4-Di2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>5000</v>
+        <v>4250</v>
       </c>
       <c r="G114" t="n">
         <v>1219</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 5}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 1}, {'order_no': 'F369', 'width': 109.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -5689,43 +5689,43 @@
         <v>0.492</v>
       </c>
       <c r="K114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>F375</t>
+          <t>F372</t>
         </is>
       </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>820.345</v>
+        <v>582.24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Z3-Di2</t>
+          <t>Z4-Di2</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Z3-Di2</t>
+          <t>Z4-Di2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
-        <v>5000</v>
+        <v>4250</v>
       </c>
       <c r="G115" t="n">
         <v>1219</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 5}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F372', 'width': 167.0, 'lines': 1}, {'order_no': 'F369', 'width': 109.0, 'lines': 4}]</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -5735,477 +5735,155 @@
         <v>0.492</v>
       </c>
       <c r="K115" t="n">
+        <v>3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>F369</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>4</v>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>F370</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
       <c r="N115" t="n">
-        <v>500.41</v>
+        <v>1520.098</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Z3-Di2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Z3-Di2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>5000</v>
+        <v>4153</v>
       </c>
       <c r="G116" t="n">
         <v>1219</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F386', 'width': 294.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J116" t="n">
-        <v>0.492</v>
+        <v>0.574</v>
       </c>
       <c r="K116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>F368</t>
+          <t>F385</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N116" t="n">
-        <v>1292.043</v>
+        <v>844.909</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Z3-Di2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Z3-Di2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
-        <v>5000</v>
+        <v>4153</v>
       </c>
       <c r="G117" t="n">
         <v>1219</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F375', 'width': 200.0, 'lines': 1}, {'order_no': 'F370', 'width': 122.0, 'lines': 1}, {'order_no': 'F368', 'width': 105.0, 'lines': 3}, {'order_no': 'F381', 'width': 64.0, 'lines': 9}, {'order_no': 'F379', 'width': 290.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 0}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F386', 'width': 294.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J117" t="n">
-        <v>0.492</v>
+        <v>0.574</v>
       </c>
       <c r="K117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>F381</t>
+          <t>F387</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N117" t="n">
-        <v>2362.592</v>
+        <v>2902.671</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>X3-Di2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>X3-Di2</t>
+          <t>HTV0800/24-D2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>3750</v>
+        <v>4153</v>
       </c>
       <c r="G118" t="n">
         <v>1219</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 3}, {'order_no': 'F368', 'width': 105.0, 'lines': 7}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
+          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F386', 'width': 294.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J118" t="n">
-        <v>0.738</v>
+        <v>0.574</v>
       </c>
       <c r="K118" t="n">
         <v>3</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>F370</t>
+          <t>F384</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N118" t="n">
-        <v>1125.923</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="n">
-        <v>3750</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 3}, {'order_no': 'F368', 'width': 105.0, 'lines': 7}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>9</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="K119" t="n">
-        <v>3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>F368</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>7</v>
-      </c>
-      <c r="N119" t="n">
-        <v>2261.075</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>X3-Di2</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="n">
-        <v>3750</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 3}, {'order_no': 'F368', 'width': 105.0, 'lines': 7}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>9</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="K120" t="n">
-        <v>3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>F369</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="n">
-        <v>335.316</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>X4-Di2</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>X4-Di2</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 9}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>12</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="K121" t="n">
-        <v>2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>F370</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>9</v>
-      </c>
-      <c r="N121" t="n">
-        <v>4278.507</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>X4-Di2</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>X4-Di2</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="n">
-        <v>4750</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F370', 'width': 122.0, 'lines': 9}, {'order_no': 'F368', 'width': 105.0, 'lines': 0}, {'order_no': 'F369', 'width': 109.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>12</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="K122" t="n">
-        <v>2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>F369</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="n">
-        <v>424.733</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="n">
-        <v>4153</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F386', 'width': 294.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>7</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="K123" t="n">
-        <v>3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>F385</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="n">
-        <v>844.909</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="n">
-        <v>4153</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F386', 'width': 294.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>7</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="K124" t="n">
-        <v>3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>F387</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>2</v>
-      </c>
-      <c r="N124" t="n">
-        <v>2902.671</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>HTV0800/24-D2</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="n">
-        <v>4153</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1219</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>[{'order_no': 'F385', 'width': 248.0, 'lines': 1}, {'order_no': 'F387', 'width': 426.0, 'lines': 2}, {'order_no': 'F386', 'width': 294.0, 'lines': 0}, {'order_no': 'F384', 'width': 112.0, 'lines': 1}]</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>7</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="K125" t="n">
-        <v>3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>F384</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="n">
         <v>381.572</v>
       </c>
     </row>
